--- a/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
+++ b/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{12F168AA-D9C2-4D85-A93D-AA0BE2A192E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFABAAE-9D78-4223-B9E5-74F8558E000E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lnUSDummyModelTripleInteraction" sheetId="1" r:id="rId1"/>
     <sheet name="All Countries" sheetId="2" r:id="rId2"/>
-    <sheet name="Less 5 Countries" sheetId="3" r:id="rId3"/>
+    <sheet name="AllCountriesAddCoef" sheetId="4" r:id="rId3"/>
+    <sheet name="Less4Countries" sheetId="3" r:id="rId4"/>
+    <sheet name="Less4CountriesAddCoef" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="248">
   <si>
     <t>AllCountries</t>
   </si>
@@ -757,12 +759,21 @@
   </si>
   <si>
     <t>USDummy=1 # 80  # YearDecade</t>
+  </si>
+  <si>
+    <t>All Countries</t>
+  </si>
+  <si>
+    <t>Add Other Coefficients</t>
+  </si>
+  <si>
+    <t>Add Coef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3070,6 +3081,1798 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 10-19  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-9.5576900000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1443758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1280452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3748700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5717400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5763800000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A7C-4415-A3C7-94166712B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 20-29 # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.20451009999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15122239999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19988719999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1955712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.8326699999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.187247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A7C-4415-A3C7-94166712B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 30-39  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.2247189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.32084370000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37554529999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.28083330000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2139875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.8567699999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A7C-4415-A3C7-94166712B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 40-49  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.24398829999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.40028639999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45993079999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.38585030000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.32111109999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2282469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A7C-4415-A3C7-94166712B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 50-59  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.42010260000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.50712279999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.48603459999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.4040434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.39425060000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.33999800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8A7C-4415-A3C7-94166712B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 60-69  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.55440870000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.59397469999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.52585350000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.46110810000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42330570000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.42371170000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8A7C-4415-A3C7-94166712B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 70-79  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.63400629999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66070269999999987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.59403199999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.56341069999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.51994109999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.51149899999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8A7C-4415-A3C7-94166712B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 80  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.56177909999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.62453150000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.61896510000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.56395919999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.54239300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.56449490000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8A7C-4415-A3C7-94166712B2EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1389297424"/>
+        <c:axId val="1261488032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1389297424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261488032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1261488032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389297424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$B$17:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-9.5576900000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.20451009999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2247189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.24398829999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42010260000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.55440870000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.63400629999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56177909999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD75-4FD4-B601-57A6543B8C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$B$17:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.1443758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15122239999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.32084370000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.40028639999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.50712279999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.59397469999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.66070269999999987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.62453150000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD75-4FD4-B601-57A6543B8C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$B$17:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.1280452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.19988719999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37554529999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.45993079999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.48603459999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.52585350000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.59403199999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.61896510000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD75-4FD4-B601-57A6543B8C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$B$17:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2.3748700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1955712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.28083330000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.38585030000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4040434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.46110810000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.56341069999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56395919999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BD75-4FD4-B601-57A6543B8C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$B$17:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2.5717400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.8326699999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2139875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.32111109999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.39425060000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.42330570000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.51994109999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.54239300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BD75-4FD4-B601-57A6543B8C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>AllCountriesAddCoef!$B$17:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCountriesAddCoef!$B$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5763800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.187247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.8567699999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.2282469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.33999800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.42371170000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.51149899999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56449490000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BD75-4FD4-B601-57A6543B8C83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1389285824"/>
+        <c:axId val="1261481792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1389285824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261481792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1261481792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389285824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3135,7 +4938,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$H$5</c:f>
+              <c:f>Less4Countries!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3158,7 +4961,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$I$2:$N$3</c:f>
+              <c:f>Less4Countries!$H$2:$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3184,7 +4987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$I$5:$N$5</c:f>
+              <c:f>Less4Countries!$H$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3221,7 +5024,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$H$6</c:f>
+              <c:f>Less4Countries!$G$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3244,7 +5047,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$I$2:$N$3</c:f>
+              <c:f>Less4Countries!$H$2:$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3270,7 +5073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$I$6:$N$6</c:f>
+              <c:f>Less4Countries!$H$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3307,7 +5110,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$H$7</c:f>
+              <c:f>Less4Countries!$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3330,7 +5133,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$I$2:$N$3</c:f>
+              <c:f>Less4Countries!$H$2:$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3356,7 +5159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$I$7:$N$7</c:f>
+              <c:f>Less4Countries!$H$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3393,7 +5196,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$H$8</c:f>
+              <c:f>Less4Countries!$G$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3416,7 +5219,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$I$2:$N$3</c:f>
+              <c:f>Less4Countries!$H$2:$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3442,7 +5245,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$I$8:$N$8</c:f>
+              <c:f>Less4Countries!$H$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3479,7 +5282,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$H$9</c:f>
+              <c:f>Less4Countries!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3502,7 +5305,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$I$2:$N$3</c:f>
+              <c:f>Less4Countries!$H$2:$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3528,7 +5331,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$I$9:$N$9</c:f>
+              <c:f>Less4Countries!$H$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3565,7 +5368,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$H$10</c:f>
+              <c:f>Less4Countries!$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3590,7 +5393,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$I$2:$N$3</c:f>
+              <c:f>Less4Countries!$H$2:$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3616,7 +5419,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$I$10:$N$10</c:f>
+              <c:f>Less4Countries!$H$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3653,7 +5456,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$H$11</c:f>
+              <c:f>Less4Countries!$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3678,7 +5481,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$I$2:$N$3</c:f>
+              <c:f>Less4Countries!$H$2:$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3704,7 +5507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$I$11:$N$11</c:f>
+              <c:f>Less4Countries!$H$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3938,7 +5741,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4023,7 +5826,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$S$4</c:f>
+              <c:f>Less4Countries!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4046,7 +5849,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$T$3:$Z$3</c:f>
+              <c:f>Less4Countries!$S$3:$Y$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4075,7 +5878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$T$4:$Z$4</c:f>
+              <c:f>Less4Countries!$S$4:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4115,7 +5918,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$S$5</c:f>
+              <c:f>Less4Countries!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4138,7 +5941,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$T$3:$Z$3</c:f>
+              <c:f>Less4Countries!$S$3:$Y$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4167,7 +5970,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$T$5:$Z$5</c:f>
+              <c:f>Less4Countries!$S$5:$Y$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4207,7 +6010,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$S$6</c:f>
+              <c:f>Less4Countries!$R$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4230,7 +6033,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$T$3:$Z$3</c:f>
+              <c:f>Less4Countries!$S$3:$Y$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4259,7 +6062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$T$6:$Z$6</c:f>
+              <c:f>Less4Countries!$S$6:$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4299,7 +6102,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$S$7</c:f>
+              <c:f>Less4Countries!$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4322,7 +6125,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$T$3:$Z$3</c:f>
+              <c:f>Less4Countries!$S$3:$Y$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4351,7 +6154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$T$7:$Z$7</c:f>
+              <c:f>Less4Countries!$S$7:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4391,7 +6194,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$S$8</c:f>
+              <c:f>Less4Countries!$R$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4414,7 +6217,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$T$3:$Z$3</c:f>
+              <c:f>Less4Countries!$S$3:$Y$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4443,7 +6246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$T$8:$Z$8</c:f>
+              <c:f>Less4Countries!$S$8:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4483,7 +6286,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$S$9</c:f>
+              <c:f>Less4Countries!$R$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4506,7 +6309,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Less 5 Countries'!$T$3:$Z$3</c:f>
+              <c:f>Less4Countries!$S$3:$Y$3</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4535,7 +6338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Less 5 Countries'!$T$9:$Z$9</c:f>
+              <c:f>Less4Countries!$S$9:$Y$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4686,6 +6489,1798 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="913441103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 10-19  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-8.2736199999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1238089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.10956299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.44046E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0864900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1643799999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C48E-4154-95C1-B7BE134FD3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 20-29 # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.19365070000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.13369059999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.18387580000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.18968409999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.4181500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1710189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C48E-4154-95C1-B7BE134FD3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 30-39  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.21749609999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.30781799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.362456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27196239999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.20224349999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.0099500000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C48E-4154-95C1-B7BE134FD3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 40-49  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.23572369999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.38977989999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45770499999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.37527060000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.29594489999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2021086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C48E-4154-95C1-B7BE134FD3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 50-59  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.41074839999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.49898370000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.49047819999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.40029139999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.38855119999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.32179610000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C48E-4154-95C1-B7BE134FD3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 60-69  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.54465839999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5843453999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.52644659999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.45588609999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4227593999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.409551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C48E-4154-95C1-B7BE134FD3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 70-79  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.62729639999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.65378219999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.60023779999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5664518999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.52368949999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50304589999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C48E-4154-95C1-B7BE134FD3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USDummy=1 # 80  # YearDecade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.55715610000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.61997610000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.6310135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.57389100000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.55308420000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.56193879999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C48E-4154-95C1-B7BE134FD3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1386601568"/>
+        <c:axId val="1388557408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1386601568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1388557408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1388557408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1386601568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$B$14:$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-8.2736199999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.19365070000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.21749609999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.23572369999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.41074839999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.54465839999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.62729639999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.55715610000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F819-4775-8F82-44AC755C049A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1970</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$B$14:$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.1238089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.13369059999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.30781799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.38977989999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.49898370000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5843453999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.65378219999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.61997610000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F819-4775-8F82-44AC755C049A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$B$14:$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.10956299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.18387580000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.362456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.45770499999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.49047819999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.52644659999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60023779999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6310135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F819-4775-8F82-44AC755C049A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$B$14:$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.44046E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.18968409999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.27196239999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.37527060000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.40029139999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45588609999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5664518999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.57389100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F819-4775-8F82-44AC755C049A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$B$14:$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-3.0864900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.4181500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.20224349999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.29594489999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.38855119999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.4227593999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.52368949999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.55308420000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F819-4775-8F82-44AC755C049A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Less4CountriesAddCoef!$B$14:$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50-59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70-79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Less4CountriesAddCoef!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.1643799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1710189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0099500000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.2021086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.32179610000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.409551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.50304589999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.56193879999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F819-4775-8F82-44AC755C049A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1457344800"/>
+        <c:axId val="1391878656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1457344800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391878656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1391878656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1457344800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4932,6 +8527,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6996,20 +10751,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63211</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>503463</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7036,16 +12855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>404811</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>208250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>327314</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7077,16 +12896,93 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03FA08A-2221-4E27-A6DB-A99404536128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2E844C-49E4-4362-8885-7EC7396B8868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7113,16 +13009,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7130,6 +13026,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43F4545-4B37-4614-9A79-73AC4CFB9FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BEE569-E139-4C29-9EE4-E9B77255B03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117659</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A450CE68-3AFF-49BC-B164-8D32D15F4EDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7446,11 +13419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:C235"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10053,18 +16026,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10072,6 +16046,9 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10566,6 +16543,12 @@
       <c r="B12">
         <v>-0.19629079999999999</v>
       </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>-0.13000999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -10574,6 +16557,12 @@
       <c r="B13">
         <v>-0.20587530000000001</v>
       </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>-5.1209299999999999E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -10582,6 +16571,12 @@
       <c r="B14">
         <v>-0.13706080000000001</v>
       </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>-0.14357929999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -10590,6 +16585,12 @@
       <c r="B15">
         <v>-4.3122199999999999E-2</v>
       </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>-0.3384993</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -10598,6 +16599,12 @@
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>-0.54508730000000005</v>
+      </c>
       <c r="H16" t="s">
         <v>236</v>
       </c>
@@ -10627,6 +16634,12 @@
       <c r="B17">
         <v>-4.8320999999999998E-3</v>
       </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>-0.61637929999999996</v>
+      </c>
       <c r="H17" t="s">
         <v>237</v>
       </c>
@@ -10656,6 +16669,12 @@
       <c r="B18">
         <v>-0.1123313</v>
       </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>-0.59280120000000003</v>
+      </c>
       <c r="H18" t="s">
         <v>238</v>
       </c>
@@ -10875,6 +16894,24 @@
       <c r="B27">
         <v>-4.1795400000000003E-2</v>
       </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -10883,6 +16920,24 @@
       <c r="B28">
         <v>-3.0033899999999999E-2</v>
       </c>
+      <c r="C28">
+        <v>-9.5576900000000006E-2</v>
+      </c>
+      <c r="D28">
+        <v>-0.1443758</v>
+      </c>
+      <c r="E28">
+        <v>-0.1280452</v>
+      </c>
+      <c r="F28">
+        <v>-2.3748700000000001E-2</v>
+      </c>
+      <c r="G28">
+        <v>-2.5717400000000001E-2</v>
+      </c>
+      <c r="H28">
+        <v>5.5763800000000002E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -10916,15 +16971,18 @@
         <v>9.5488400000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>216</v>
       </c>
       <c r="B33">
         <v>0.14727899999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>217</v>
       </c>
@@ -10932,87 +16990,499 @@
         <v>0.1077279</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>218</v>
       </c>
       <c r="B35">
         <v>0.14749899999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>236</v>
+      </c>
+      <c r="S35" t="str">
+        <f>"20-29"</f>
+        <v>20-29</v>
+      </c>
+      <c r="T35" t="str">
+        <f>"30-39"</f>
+        <v>30-39</v>
+      </c>
+      <c r="U35" t="str">
+        <f>"40-49"</f>
+        <v>40-49</v>
+      </c>
+      <c r="V35" t="str">
+        <f>"50-59"</f>
+        <v>50-59</v>
+      </c>
+      <c r="W35" t="str">
+        <f>"60-69"</f>
+        <v>60-69</v>
+      </c>
+      <c r="X35" t="str">
+        <f>"70-79"</f>
+        <v>70-79</v>
+      </c>
+      <c r="Y35" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>219</v>
       </c>
       <c r="B36">
         <v>6.5611799999999998E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36">
+        <v>1960</v>
+      </c>
+      <c r="J36">
+        <v>1970</v>
+      </c>
+      <c r="K36">
+        <v>1980</v>
+      </c>
+      <c r="L36">
+        <v>1990</v>
+      </c>
+      <c r="M36">
+        <v>2000</v>
+      </c>
+      <c r="N36">
+        <v>2010</v>
+      </c>
+      <c r="R36">
+        <v>1960</v>
+      </c>
+      <c r="S36">
+        <v>2.10768E-2</v>
+      </c>
+      <c r="T36">
+        <v>-7.7932699999999994E-2</v>
+      </c>
+      <c r="U36">
+        <v>-4.8320999999999998E-3</v>
+      </c>
+      <c r="V36">
+        <v>1.3973599999999999E-2</v>
+      </c>
+      <c r="W36">
+        <v>8.6255499999999999E-2</v>
+      </c>
+      <c r="X36">
+        <v>7.7949900000000003E-2</v>
+      </c>
+      <c r="Y36">
+        <v>0.12659899999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>220</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>237</v>
+      </c>
+      <c r="I37">
+        <f>I17+D11+$C$28</f>
+        <v>-9.5576900000000006E-2</v>
+      </c>
+      <c r="J37">
+        <f>J17+D11+$D$28</f>
+        <v>-0.1443758</v>
+      </c>
+      <c r="K37">
+        <f>K17+D11+$E$28</f>
+        <v>-0.1280452</v>
+      </c>
+      <c r="L37">
+        <f>L17+D11+$F$28</f>
+        <v>-2.3748700000000001E-2</v>
+      </c>
+      <c r="M37">
+        <f>M17+D11+$G$28</f>
+        <v>-2.5717400000000001E-2</v>
+      </c>
+      <c r="N37">
+        <f>N17+D11+$H$28</f>
+        <v>5.5763800000000002E-2</v>
+      </c>
+      <c r="R37">
+        <v>1970</v>
+      </c>
+      <c r="S37">
+        <v>0.12316340000000001</v>
+      </c>
+      <c r="T37">
+        <v>-0.1252586</v>
+      </c>
+      <c r="U37">
+        <v>-0.1123313</v>
+      </c>
+      <c r="V37">
+        <v>-2.4247700000000001E-2</v>
+      </c>
+      <c r="W37">
+        <v>9.5488400000000001E-2</v>
+      </c>
+      <c r="X37">
+        <v>0.1000524</v>
+      </c>
+      <c r="Y37">
+        <v>0.1126455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>221</v>
       </c>
       <c r="B38">
         <v>7.7949900000000003E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ref="I38:I44" si="0">I18+D12+$C$28</f>
+        <v>-0.20451009999999997</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J44" si="1">J18+D12+$D$28</f>
+        <v>-0.15122239999999998</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:K44" si="2">K18+D12+$E$28</f>
+        <v>-0.19988719999999999</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:L44" si="3">L18+D12+$F$28</f>
+        <v>-0.1955712</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38:M44" si="4">M18+D12+$G$28</f>
+        <v>-7.8326699999999985E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N44" si="5">N18+D12+$H$28</f>
+        <v>0.187247</v>
+      </c>
+      <c r="R38">
+        <v>1980</v>
+      </c>
+      <c r="S38">
+        <v>5.8167999999999997E-2</v>
+      </c>
+      <c r="T38">
+        <v>-0.19629079999999999</v>
+      </c>
+      <c r="U38">
+        <v>-0.18830630000000001</v>
+      </c>
+      <c r="V38">
+        <v>-1.94901E-2</v>
+      </c>
+      <c r="W38">
+        <v>0.14727899999999999</v>
+      </c>
+      <c r="X38">
+        <v>0.15039250000000001</v>
+      </c>
+      <c r="Y38">
+        <v>0.10188129999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>222</v>
       </c>
       <c r="B39">
         <v>0.1000524</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>-0.2247189</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>-0.32084370000000001</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>-0.37554529999999997</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>-0.28083330000000001</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>-0.2139875</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>-3.8567699999999996E-2</v>
+      </c>
+      <c r="R39">
+        <v>1990</v>
+      </c>
+      <c r="S39">
+        <v>-4.1812500000000002E-2</v>
+      </c>
+      <c r="T39">
+        <v>-0.20587530000000001</v>
+      </c>
+      <c r="U39">
+        <v>-0.2185223</v>
+      </c>
+      <c r="V39">
+        <v>-4.1795400000000003E-2</v>
+      </c>
+      <c r="W39">
+        <v>0.1077279</v>
+      </c>
+      <c r="X39">
+        <v>7.6717300000000002E-2</v>
+      </c>
+      <c r="Y39">
+        <v>5.2590699999999997E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>223</v>
       </c>
       <c r="B40">
         <v>0.15039250000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>-0.24398829999999999</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>-0.40028639999999999</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>-0.45993079999999997</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>-0.38585030000000003</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>-0.32111109999999998</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>-0.2282469</v>
+      </c>
+      <c r="R40">
+        <v>2000</v>
+      </c>
+      <c r="S40">
+        <v>7.7400700000000003E-2</v>
+      </c>
+      <c r="T40">
+        <v>-0.13706080000000001</v>
+      </c>
+      <c r="U40">
+        <v>-0.15181439999999999</v>
+      </c>
+      <c r="V40">
+        <v>-3.0033899999999999E-2</v>
+      </c>
+      <c r="W40">
+        <v>0.14749899999999999</v>
+      </c>
+      <c r="X40">
+        <v>0.1221556</v>
+      </c>
+      <c r="Y40">
+        <v>7.6125600000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>224</v>
       </c>
       <c r="B41">
         <v>7.6717300000000002E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>241</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>-0.42010260000000005</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>-0.50712279999999998</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>-0.48603459999999998</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>-0.4040434</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>-0.39425060000000001</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>-0.33999800000000002</v>
+      </c>
+      <c r="R41">
+        <v>2010</v>
+      </c>
+      <c r="S41">
+        <v>0.26149319999999998</v>
+      </c>
+      <c r="T41">
+        <v>-4.3122199999999999E-2</v>
+      </c>
+      <c r="U41">
+        <v>-0.14043140000000001</v>
+      </c>
+      <c r="V41">
+        <v>-5.7262500000000001E-2</v>
+      </c>
+      <c r="W41">
+        <v>6.5611799999999998E-2</v>
+      </c>
+      <c r="X41">
+        <v>4.91165E-2</v>
+      </c>
+      <c r="Y41">
+        <v>-2.7457499999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>225</v>
       </c>
       <c r="B42">
         <v>0.1221556</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>-0.55440870000000009</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>-0.59397469999999997</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>-0.52585350000000008</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>-0.46110810000000008</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>-0.42330570000000006</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>-0.42371170000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>226</v>
       </c>
       <c r="B43">
         <v>4.91165E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>243</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>-0.63400629999999991</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>-0.66070269999999987</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>-0.59403199999999989</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>-0.56341069999999993</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>-0.51994109999999993</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="5"/>
+        <v>-0.51149899999999993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>227</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>-0.56177909999999998</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>-0.62453150000000002</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>-0.61896510000000005</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>-0.56395919999999999</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>-0.54239300000000001</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="5"/>
+        <v>-0.56449490000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>228</v>
       </c>
@@ -11020,7 +17490,7 @@
         <v>0.12659899999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>229</v>
       </c>
@@ -11028,7 +17498,7 @@
         <v>0.1126455</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>230</v>
       </c>
@@ -11036,7 +17506,7 @@
         <v>0.10188129999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>231</v>
       </c>
@@ -11067,29 +17537,468 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6752113A-E80F-4D8E-962A-42C6198FCF3D}">
+  <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2">
+        <v>1960</v>
+      </c>
+      <c r="C2">
+        <v>1970</v>
+      </c>
+      <c r="D2">
+        <v>1980</v>
+      </c>
+      <c r="E2">
+        <v>1990</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3">
+        <v>-9.5576900000000006E-2</v>
+      </c>
+      <c r="C3">
+        <v>-0.1443758</v>
+      </c>
+      <c r="D3">
+        <v>-0.1280452</v>
+      </c>
+      <c r="E3">
+        <v>-2.3748700000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>-2.5717400000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>5.5763800000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4">
+        <v>-0.20451009999999997</v>
+      </c>
+      <c r="C4">
+        <v>-0.15122239999999998</v>
+      </c>
+      <c r="D4">
+        <v>-0.19988719999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.1955712</v>
+      </c>
+      <c r="F4">
+        <v>-7.8326699999999985E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.187247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5">
+        <v>-0.2247189</v>
+      </c>
+      <c r="C5">
+        <v>-0.32084370000000001</v>
+      </c>
+      <c r="D5">
+        <v>-0.37554529999999997</v>
+      </c>
+      <c r="E5">
+        <v>-0.28083330000000001</v>
+      </c>
+      <c r="F5">
+        <v>-0.2139875</v>
+      </c>
+      <c r="G5">
+        <v>-3.8567699999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6">
+        <v>-0.24398829999999999</v>
+      </c>
+      <c r="C6">
+        <v>-0.40028639999999999</v>
+      </c>
+      <c r="D6">
+        <v>-0.45993079999999997</v>
+      </c>
+      <c r="E6">
+        <v>-0.38585030000000003</v>
+      </c>
+      <c r="F6">
+        <v>-0.32111109999999998</v>
+      </c>
+      <c r="G6">
+        <v>-0.2282469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7">
+        <v>-0.42010260000000005</v>
+      </c>
+      <c r="C7">
+        <v>-0.50712279999999998</v>
+      </c>
+      <c r="D7">
+        <v>-0.48603459999999998</v>
+      </c>
+      <c r="E7">
+        <v>-0.4040434</v>
+      </c>
+      <c r="F7">
+        <v>-0.39425060000000001</v>
+      </c>
+      <c r="G7">
+        <v>-0.33999800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8">
+        <v>-0.55440870000000009</v>
+      </c>
+      <c r="C8">
+        <v>-0.59397469999999997</v>
+      </c>
+      <c r="D8">
+        <v>-0.52585350000000008</v>
+      </c>
+      <c r="E8">
+        <v>-0.46110810000000008</v>
+      </c>
+      <c r="F8">
+        <v>-0.42330570000000006</v>
+      </c>
+      <c r="G8">
+        <v>-0.42371170000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9">
+        <v>-0.63400629999999991</v>
+      </c>
+      <c r="C9">
+        <v>-0.66070269999999987</v>
+      </c>
+      <c r="D9">
+        <v>-0.59403199999999989</v>
+      </c>
+      <c r="E9">
+        <v>-0.56341069999999993</v>
+      </c>
+      <c r="F9">
+        <v>-0.51994109999999993</v>
+      </c>
+      <c r="G9">
+        <v>-0.51149899999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10">
+        <v>-0.56177909999999998</v>
+      </c>
+      <c r="C10">
+        <v>-0.62453150000000002</v>
+      </c>
+      <c r="D10">
+        <v>-0.61896510000000005</v>
+      </c>
+      <c r="E10">
+        <v>-0.56395919999999999</v>
+      </c>
+      <c r="F10">
+        <v>-0.54239300000000001</v>
+      </c>
+      <c r="G10">
+        <v>-0.56449490000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"10-19"</f>
+        <v>10-19</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"20-29"</f>
+        <v>20-29</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"30-39"</f>
+        <v>30-39</v>
+      </c>
+      <c r="E17" t="str">
+        <f>"40-49"</f>
+        <v>40-49</v>
+      </c>
+      <c r="F17" t="str">
+        <f>"50-59"</f>
+        <v>50-59</v>
+      </c>
+      <c r="G17" t="str">
+        <f>"60-69"</f>
+        <v>60-69</v>
+      </c>
+      <c r="H17" t="str">
+        <f>"70-79"</f>
+        <v>70-79</v>
+      </c>
+      <c r="I17" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1960</v>
+      </c>
+      <c r="B18">
+        <v>-9.5576900000000006E-2</v>
+      </c>
+      <c r="C18">
+        <v>-0.20451009999999997</v>
+      </c>
+      <c r="D18">
+        <v>-0.2247189</v>
+      </c>
+      <c r="E18">
+        <v>-0.24398829999999999</v>
+      </c>
+      <c r="F18">
+        <v>-0.42010260000000005</v>
+      </c>
+      <c r="G18">
+        <v>-0.55440870000000009</v>
+      </c>
+      <c r="H18">
+        <v>-0.63400629999999991</v>
+      </c>
+      <c r="I18">
+        <v>-0.56177909999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1970</v>
+      </c>
+      <c r="B19">
+        <v>-0.1443758</v>
+      </c>
+      <c r="C19">
+        <v>-0.15122239999999998</v>
+      </c>
+      <c r="D19">
+        <v>-0.32084370000000001</v>
+      </c>
+      <c r="E19">
+        <v>-0.40028639999999999</v>
+      </c>
+      <c r="F19">
+        <v>-0.50712279999999998</v>
+      </c>
+      <c r="G19">
+        <v>-0.59397469999999997</v>
+      </c>
+      <c r="H19">
+        <v>-0.66070269999999987</v>
+      </c>
+      <c r="I19">
+        <v>-0.62453150000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1980</v>
+      </c>
+      <c r="B20">
+        <v>-0.1280452</v>
+      </c>
+      <c r="C20">
+        <v>-0.19988719999999999</v>
+      </c>
+      <c r="D20">
+        <v>-0.37554529999999997</v>
+      </c>
+      <c r="E20">
+        <v>-0.45993079999999997</v>
+      </c>
+      <c r="F20">
+        <v>-0.48603459999999998</v>
+      </c>
+      <c r="G20">
+        <v>-0.52585350000000008</v>
+      </c>
+      <c r="H20">
+        <v>-0.59403199999999989</v>
+      </c>
+      <c r="I20">
+        <v>-0.61896510000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1990</v>
+      </c>
+      <c r="B21">
+        <v>-2.3748700000000001E-2</v>
+      </c>
+      <c r="C21">
+        <v>-0.1955712</v>
+      </c>
+      <c r="D21">
+        <v>-0.28083330000000001</v>
+      </c>
+      <c r="E21">
+        <v>-0.38585030000000003</v>
+      </c>
+      <c r="F21">
+        <v>-0.4040434</v>
+      </c>
+      <c r="G21">
+        <v>-0.46110810000000008</v>
+      </c>
+      <c r="H21">
+        <v>-0.56341069999999993</v>
+      </c>
+      <c r="I21">
+        <v>-0.56395919999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>-2.5717400000000001E-2</v>
+      </c>
+      <c r="C22">
+        <v>-7.8326699999999985E-2</v>
+      </c>
+      <c r="D22">
+        <v>-0.2139875</v>
+      </c>
+      <c r="E22">
+        <v>-0.32111109999999998</v>
+      </c>
+      <c r="F22">
+        <v>-0.39425060000000001</v>
+      </c>
+      <c r="G22">
+        <v>-0.42330570000000006</v>
+      </c>
+      <c r="H22">
+        <v>-0.51994109999999993</v>
+      </c>
+      <c r="I22">
+        <v>-0.54239300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23">
+        <v>5.5763800000000002E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.187247</v>
+      </c>
+      <c r="D23">
+        <v>-3.8567699999999996E-2</v>
+      </c>
+      <c r="E23">
+        <v>-0.2282469</v>
+      </c>
+      <c r="F23">
+        <v>-0.33999800000000002</v>
+      </c>
+      <c r="G23">
+        <v>-0.42371170000000002</v>
+      </c>
+      <c r="H23">
+        <v>-0.51149899999999993</v>
+      </c>
+      <c r="I23">
+        <v>-0.56449490000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y52"/>
+  <sheetViews>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -11097,76 +18006,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
       <c r="B3">
         <v>1.75827E-2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>236</v>
       </c>
+      <c r="H3">
+        <v>1960</v>
+      </c>
       <c r="I3">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="J3">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="K3">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="L3">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="M3">
-        <v>2000</v>
-      </c>
-      <c r="N3">
         <v>2010</v>
       </c>
-      <c r="S3" t="s">
+      <c r="R3" t="s">
         <v>236</v>
       </c>
-      <c r="T3" t="str">
+      <c r="S3" t="str">
         <f>"20-29"</f>
         <v>20-29</v>
       </c>
-      <c r="U3" t="str">
+      <c r="T3" t="str">
         <f>"30-39"</f>
         <v>30-39</v>
       </c>
-      <c r="V3" t="str">
+      <c r="U3" t="str">
         <f>"40-49"</f>
         <v>40-49</v>
       </c>
-      <c r="W3" t="str">
+      <c r="V3" t="str">
         <f>"50-59"</f>
         <v>50-59</v>
       </c>
-      <c r="X3" t="str">
+      <c r="W3" t="str">
         <f>"60-69"</f>
         <v>60-69</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="X3" t="str">
         <f>"70-79"</f>
         <v>70-79</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="Y3" t="str">
         <f>"80"</f>
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
       <c r="B4">
         <v>0.1186155</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>237</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -11182,400 +18094,397 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
+      <c r="R4">
+        <v>1960</v>
       </c>
       <c r="S4">
-        <v>1960</v>
+        <v>1.75827E-2</v>
       </c>
       <c r="T4">
-        <v>1.75827E-2</v>
+        <v>-8.4620899999999999E-2</v>
       </c>
       <c r="U4">
-        <v>-8.4620899999999999E-2</v>
+        <v>-1.33011E-2</v>
       </c>
       <c r="V4">
-        <v>-1.33011E-2</v>
+        <v>4.4352000000000003E-3</v>
       </c>
       <c r="W4">
-        <v>4.4352000000000003E-3</v>
+        <v>7.6244800000000001E-2</v>
       </c>
       <c r="X4">
-        <v>7.6244800000000001E-2</v>
+        <v>6.6253400000000004E-2</v>
       </c>
       <c r="Y4">
-        <v>6.6253400000000004E-2</v>
-      </c>
-      <c r="Z4">
         <v>0.1140782</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
       <c r="B5">
         <v>5.4184400000000001E-2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>238</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <f>B3</f>
         <v>1.75827E-2</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <f>B4</f>
         <v>0.1186155</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <f>B5</f>
         <v>5.4184400000000001E-2</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <f>B6</f>
         <v>-4.6782299999999999E-2</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <f>B7</f>
         <v>7.51806E-2</v>
       </c>
-      <c r="N5">
+      <c r="M5">
         <f>B8</f>
         <v>0.23787230000000001</v>
       </c>
+      <c r="R5">
+        <v>1970</v>
+      </c>
       <c r="S5">
-        <v>1970</v>
+        <v>0.1186155</v>
       </c>
       <c r="T5">
-        <v>0.1186155</v>
+        <v>-0.13387009999999999</v>
       </c>
       <c r="U5">
-        <v>-0.13387009999999999</v>
+        <v>-0.1262846</v>
       </c>
       <c r="V5">
-        <v>-0.1262846</v>
+        <v>-4.2727399999999999E-2</v>
       </c>
       <c r="W5">
-        <v>-4.2727399999999999E-2</v>
+        <v>7.7630500000000005E-2</v>
       </c>
       <c r="X5">
-        <v>7.7630500000000005E-2</v>
+        <v>8.0840300000000004E-2</v>
       </c>
       <c r="Y5">
-        <v>8.0840300000000004E-2</v>
-      </c>
-      <c r="Z5">
         <v>9.2330899999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
       <c r="B6">
         <v>-4.6782299999999999E-2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>239</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <f>B10</f>
         <v>-8.4620899999999999E-2</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <f>B11</f>
         <v>-0.13387009999999999</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <f>B12</f>
         <v>-0.20275399999999999</v>
       </c>
-      <c r="L6">
+      <c r="K6">
         <f>B13</f>
         <v>-0.20741879999999999</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <f>B14</f>
         <v>-0.1212396</v>
       </c>
-      <c r="N6">
+      <c r="M6">
         <f>B15</f>
         <v>-3.1604300000000002E-2</v>
       </c>
+      <c r="R6">
+        <v>1980</v>
+      </c>
       <c r="S6">
-        <v>1980</v>
+        <v>5.4184400000000001E-2</v>
       </c>
       <c r="T6">
-        <v>5.4184400000000001E-2</v>
+        <v>-0.20275399999999999</v>
       </c>
       <c r="U6">
-        <v>-0.20275399999999999</v>
+        <v>-0.20845559999999999</v>
       </c>
       <c r="V6">
-        <v>-0.20845559999999999</v>
+        <v>-4.8467799999999998E-2</v>
       </c>
       <c r="W6">
-        <v>-4.8467799999999998E-2</v>
+        <v>0.1212834</v>
       </c>
       <c r="X6">
-        <v>0.1212834</v>
+        <v>0.1201388</v>
       </c>
       <c r="Y6">
-        <v>0.1201388</v>
-      </c>
-      <c r="Z6">
         <v>6.7047599999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
       <c r="B7">
         <v>7.51806E-2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>240</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <f>B17</f>
         <v>-1.33011E-2</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <f>B18</f>
         <v>-0.1262846</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <f>B19</f>
         <v>-0.20845559999999999</v>
       </c>
-      <c r="L7" s="2">
+      <c r="K7" s="2">
         <f>B20</f>
         <v>-0.2211796</v>
       </c>
-      <c r="M7">
+      <c r="L7">
         <f>B21</f>
         <v>-0.12539359999999999</v>
       </c>
-      <c r="N7">
+      <c r="M7">
         <f>B22</f>
         <v>-0.124066</v>
       </c>
+      <c r="R7">
+        <v>1990</v>
+      </c>
       <c r="S7">
-        <v>1990</v>
+        <v>-4.6782299999999999E-2</v>
       </c>
       <c r="T7">
-        <v>-4.6782299999999999E-2</v>
+        <v>-0.20741879999999999</v>
       </c>
       <c r="U7">
-        <v>-0.20741879999999999</v>
+        <v>-0.2211796</v>
       </c>
       <c r="V7">
-        <v>-0.2211796</v>
+        <v>-5.3439399999999998E-2</v>
       </c>
       <c r="W7">
-        <v>-5.3439399999999998E-2</v>
+        <v>9.6685499999999994E-2</v>
       </c>
       <c r="X7">
-        <v>9.6685499999999994E-2</v>
+        <v>5.87663E-2</v>
       </c>
       <c r="Y7">
-        <v>5.87663E-2</v>
-      </c>
-      <c r="Z7">
         <v>2.9011700000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>191</v>
       </c>
       <c r="B8">
         <v>0.23787230000000001</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>241</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <f>B24</f>
         <v>4.4352000000000003E-3</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <f>B25</f>
         <v>-4.2727399999999999E-2</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <f>B26</f>
         <v>-4.8467799999999998E-2</v>
       </c>
-      <c r="L8">
+      <c r="K8">
         <f>B27</f>
         <v>-5.3439399999999998E-2</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <f>B28</f>
         <v>-2.5238900000000002E-2</v>
       </c>
-      <c r="N8">
+      <c r="M8">
         <f>B29</f>
         <v>-5.0992500000000003E-2</v>
       </c>
+      <c r="R8">
+        <v>2000</v>
+      </c>
       <c r="S8">
-        <v>2000</v>
+        <v>7.51806E-2</v>
       </c>
       <c r="T8">
-        <v>7.51806E-2</v>
+        <v>-0.1212396</v>
       </c>
       <c r="U8">
-        <v>-0.1212396</v>
+        <v>-0.12539359999999999</v>
       </c>
       <c r="V8">
-        <v>-0.12539359999999999</v>
+        <v>-2.5238900000000002E-2</v>
       </c>
       <c r="W8">
-        <v>-2.5238900000000002E-2</v>
+        <v>0.1462725</v>
       </c>
       <c r="X8">
-        <v>0.1462725</v>
+        <v>0.117989</v>
       </c>
       <c r="Y8">
-        <v>0.117989</v>
-      </c>
-      <c r="Z8">
         <v>6.6278799999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>242</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <f>B31</f>
         <v>7.6244800000000001E-2</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <f>B32</f>
         <v>7.7630500000000005E-2</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <f>B33</f>
         <v>0.1212834</v>
       </c>
-      <c r="L9">
+      <c r="K9">
         <f>B34</f>
         <v>9.6685499999999994E-2</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <f>B35</f>
         <v>0.1462725</v>
       </c>
-      <c r="N9">
+      <c r="M9">
         <f>B36</f>
         <v>6.6972199999999996E-2</v>
       </c>
+      <c r="R9">
+        <v>2010</v>
+      </c>
       <c r="S9">
-        <v>2010</v>
+        <v>0.23787230000000001</v>
       </c>
       <c r="T9">
-        <v>0.23787230000000001</v>
+        <v>-3.1604300000000002E-2</v>
       </c>
       <c r="U9">
-        <v>-3.1604300000000002E-2</v>
+        <v>-0.124066</v>
       </c>
       <c r="V9">
-        <v>-0.124066</v>
+        <v>-5.0992500000000003E-2</v>
       </c>
       <c r="W9">
-        <v>-5.0992500000000003E-2</v>
+        <v>6.6972199999999996E-2</v>
       </c>
       <c r="X9">
-        <v>6.6972199999999996E-2</v>
+        <v>4.6123900000000002E-2</v>
       </c>
       <c r="Y9">
-        <v>4.6123900000000002E-2</v>
-      </c>
-      <c r="Z9">
         <v>-3.5084499999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
       <c r="B10">
         <v>-8.4620899999999999E-2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>243</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <f>B38</f>
         <v>6.6253400000000004E-2</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <f>B39</f>
         <v>8.0840300000000004E-2</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <f>B40</f>
         <v>0.1201388</v>
       </c>
-      <c r="L10">
+      <c r="K10">
         <f>B41</f>
         <v>5.87663E-2</v>
       </c>
-      <c r="M10">
+      <c r="L10">
         <f>B42</f>
         <v>0.117989</v>
       </c>
-      <c r="N10">
+      <c r="M10">
         <f>B43</f>
         <v>4.6123900000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>194</v>
       </c>
       <c r="B11">
         <v>-0.13387009999999999</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>244</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <f>B45</f>
         <v>0.1140782</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <f>B46</f>
         <v>9.2330899999999994E-2</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <f>B47</f>
         <v>6.7047599999999999E-2</v>
       </c>
-      <c r="L11">
+      <c r="K11">
         <f>B48</f>
         <v>2.9011700000000001E-2</v>
       </c>
-      <c r="M11">
+      <c r="L11">
         <f>B49</f>
         <v>6.6278799999999999E-2</v>
       </c>
-      <c r="N11">
+      <c r="M11">
         <f>B50</f>
         <v>-3.5084499999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -11583,7 +18492,7 @@
         <v>-0.20275399999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -11591,7 +18500,7 @@
         <v>-0.20741879999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>197</v>
       </c>
@@ -11599,7 +18508,7 @@
         <v>-0.1212396</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -11607,45 +18516,48 @@
         <v>-3.1604300000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>199</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>236</v>
       </c>
+      <c r="H16">
+        <v>1960</v>
+      </c>
       <c r="I16">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="J16">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="K16">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="L16">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="M16">
-        <v>2000</v>
-      </c>
-      <c r="N16">
         <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>200</v>
       </c>
       <c r="B17">
         <v>-1.33011E-2</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>237</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -11661,214 +18573,211 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
       <c r="B18">
         <v>-0.1262846</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>238</v>
       </c>
+      <c r="H18">
+        <v>1.75827E-2</v>
+      </c>
       <c r="I18">
-        <v>1.75827E-2</v>
+        <v>0.1186155</v>
       </c>
       <c r="J18">
-        <v>0.1186155</v>
+        <v>5.4184400000000001E-2</v>
       </c>
       <c r="K18">
-        <v>5.4184400000000001E-2</v>
+        <v>-4.6782299999999999E-2</v>
       </c>
       <c r="L18">
-        <v>-4.6782299999999999E-2</v>
+        <v>7.51806E-2</v>
       </c>
       <c r="M18">
-        <v>7.51806E-2</v>
-      </c>
-      <c r="N18">
         <v>0.23787230000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
       <c r="B19">
         <v>-0.20845559999999999</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>239</v>
       </c>
+      <c r="H19">
+        <v>-8.4620899999999999E-2</v>
+      </c>
       <c r="I19">
-        <v>-8.4620899999999999E-2</v>
+        <v>-0.13387009999999999</v>
       </c>
       <c r="J19">
-        <v>-0.13387009999999999</v>
+        <v>-0.20275399999999999</v>
       </c>
       <c r="K19">
-        <v>-0.20275399999999999</v>
+        <v>-0.20741879999999999</v>
       </c>
       <c r="L19">
-        <v>-0.20741879999999999</v>
+        <v>-0.1212396</v>
       </c>
       <c r="M19">
-        <v>-0.1212396</v>
-      </c>
-      <c r="N19">
         <v>-3.1604300000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>203</v>
       </c>
       <c r="B20">
         <v>-0.2211796</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>240</v>
       </c>
+      <c r="H20">
+        <v>-1.33011E-2</v>
+      </c>
       <c r="I20">
-        <v>-1.33011E-2</v>
+        <v>-0.1262846</v>
       </c>
       <c r="J20">
-        <v>-0.1262846</v>
+        <v>-0.20845559999999999</v>
       </c>
       <c r="K20">
-        <v>-0.20845559999999999</v>
+        <v>-0.2211796</v>
       </c>
       <c r="L20">
-        <v>-0.2211796</v>
+        <v>-0.12539359999999999</v>
       </c>
       <c r="M20">
-        <v>-0.12539359999999999</v>
-      </c>
-      <c r="N20">
         <v>-0.124066</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
       <c r="B21">
         <v>-0.12539359999999999</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>241</v>
       </c>
+      <c r="H21">
+        <v>4.4352000000000003E-3</v>
+      </c>
       <c r="I21">
-        <v>4.4352000000000003E-3</v>
+        <v>-4.2727399999999999E-2</v>
       </c>
       <c r="J21">
-        <v>-4.2727399999999999E-2</v>
+        <v>-4.8467799999999998E-2</v>
       </c>
       <c r="K21">
-        <v>-4.8467799999999998E-2</v>
+        <v>-5.3439399999999998E-2</v>
       </c>
       <c r="L21">
-        <v>-5.3439399999999998E-2</v>
+        <v>-2.5238900000000002E-2</v>
       </c>
       <c r="M21">
-        <v>-2.5238900000000002E-2</v>
-      </c>
-      <c r="N21">
         <v>-5.0992500000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>205</v>
       </c>
       <c r="B22">
         <v>-0.124066</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>242</v>
       </c>
+      <c r="H22">
+        <v>7.6244800000000001E-2</v>
+      </c>
       <c r="I22">
-        <v>7.6244800000000001E-2</v>
+        <v>7.7630500000000005E-2</v>
       </c>
       <c r="J22">
-        <v>7.7630500000000005E-2</v>
+        <v>0.1212834</v>
       </c>
       <c r="K22">
-        <v>0.1212834</v>
+        <v>9.6685499999999994E-2</v>
       </c>
       <c r="L22">
-        <v>9.6685499999999994E-2</v>
+        <v>0.1462725</v>
       </c>
       <c r="M22">
-        <v>0.1462725</v>
-      </c>
-      <c r="N22">
         <v>6.6972199999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>206</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>243</v>
       </c>
+      <c r="H23">
+        <v>6.6253400000000004E-2</v>
+      </c>
       <c r="I23">
-        <v>6.6253400000000004E-2</v>
+        <v>8.0840300000000004E-2</v>
       </c>
       <c r="J23">
-        <v>8.0840300000000004E-2</v>
+        <v>0.1201388</v>
       </c>
       <c r="K23">
-        <v>0.1201388</v>
+        <v>5.87663E-2</v>
       </c>
       <c r="L23">
-        <v>5.87663E-2</v>
+        <v>0.117989</v>
       </c>
       <c r="M23">
-        <v>0.117989</v>
-      </c>
-      <c r="N23">
         <v>4.6123900000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>207</v>
       </c>
       <c r="B24">
         <v>4.4352000000000003E-3</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>244</v>
       </c>
+      <c r="H24">
+        <v>0.1140782</v>
+      </c>
       <c r="I24">
-        <v>0.1140782</v>
+        <v>9.2330899999999994E-2</v>
       </c>
       <c r="J24">
-        <v>9.2330899999999994E-2</v>
+        <v>6.7047599999999999E-2</v>
       </c>
       <c r="K24">
-        <v>6.7047599999999999E-2</v>
+        <v>2.9011700000000001E-2</v>
       </c>
       <c r="L24">
-        <v>2.9011700000000001E-2</v>
+        <v>6.6278799999999999E-2</v>
       </c>
       <c r="M24">
-        <v>6.6278799999999999E-2</v>
-      </c>
-      <c r="N24">
         <v>-3.5084499999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -11876,7 +18785,7 @@
         <v>-4.2727399999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -11884,71 +18793,119 @@
         <v>-4.8467799999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>210</v>
       </c>
       <c r="B27">
         <v>-5.3439399999999998E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>211</v>
       </c>
       <c r="B28">
         <v>-2.5238900000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>-0.12849720000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>212</v>
       </c>
       <c r="B29">
         <v>-5.0992500000000003E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>-5.0139000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>213</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>-0.13968639999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>214</v>
       </c>
       <c r="B31">
         <v>7.6244800000000001E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>-0.3324474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>215</v>
       </c>
       <c r="B32">
         <v>7.7630500000000005E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>-0.53816699999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>216</v>
       </c>
       <c r="B33">
         <v>0.1212834</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>-0.61081359999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>217</v>
       </c>
       <c r="B34">
         <v>9.6685499999999994E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34">
+        <v>-0.58849810000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>218</v>
       </c>
@@ -11956,7 +18913,7 @@
         <v>0.1462725</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -11964,23 +18921,59 @@
         <v>6.6972199999999996E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>220</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>221</v>
       </c>
       <c r="B38">
         <v>6.6253400000000004E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>-8.2736199999999996E-2</v>
+      </c>
+      <c r="E38">
+        <v>-0.1238089</v>
+      </c>
+      <c r="F38">
+        <v>-0.10956299999999999</v>
+      </c>
+      <c r="G38">
+        <v>-1.44046E-2</v>
+      </c>
+      <c r="H38">
+        <v>-3.0864900000000001E-2</v>
+      </c>
+      <c r="I38">
+        <v>6.1643799999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -11988,7 +18981,7 @@
         <v>8.0840300000000004E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>223</v>
       </c>
@@ -11996,7 +18989,7 @@
         <v>0.1201388</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -12004,7 +18997,7 @@
         <v>5.87663E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>225</v>
       </c>
@@ -12012,68 +19005,752 @@
         <v>0.117989</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>226</v>
       </c>
       <c r="B43">
         <v>4.6123900000000002E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>227</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44">
+        <v>1960</v>
+      </c>
+      <c r="G44">
+        <v>1970</v>
+      </c>
+      <c r="H44">
+        <v>1980</v>
+      </c>
+      <c r="I44">
+        <v>1990</v>
+      </c>
+      <c r="J44">
+        <v>2000</v>
+      </c>
+      <c r="K44">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>228</v>
       </c>
       <c r="B45">
         <v>0.1140782</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45">
+        <f>H17+E27+$D$38</f>
+        <v>-8.2736199999999996E-2</v>
+      </c>
+      <c r="G45">
+        <f>I17+E27+$E$38</f>
+        <v>-0.1238089</v>
+      </c>
+      <c r="H45">
+        <f>J17+E27+$F$38</f>
+        <v>-0.10956299999999999</v>
+      </c>
+      <c r="I45">
+        <f>K17+E27+$G$38</f>
+        <v>-1.44046E-2</v>
+      </c>
+      <c r="J45">
+        <f>L17+E27+$H$38</f>
+        <v>-3.0864900000000001E-2</v>
+      </c>
+      <c r="K45">
+        <f>M17+E27+$I$38</f>
+        <v>6.1643799999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>229</v>
       </c>
       <c r="B46">
         <v>9.2330899999999994E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:F52" si="0">H18+E28+$D$38</f>
+        <v>-0.19365070000000001</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G52" si="1">I18+E28+$E$38</f>
+        <v>-0.13369059999999999</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:H52" si="2">J18+E28+$F$38</f>
+        <v>-0.18387580000000001</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46:I52" si="3">K18+E28+$G$38</f>
+        <v>-0.18968409999999999</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:J52" si="4">L18+E28+$H$38</f>
+        <v>-8.4181500000000006E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ref="K46:K52" si="5">M18+E28+$I$38</f>
+        <v>0.1710189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>230</v>
       </c>
       <c r="B47">
         <v>6.7047599999999999E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-0.21749609999999997</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>-0.30781799999999998</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>-0.362456</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>-0.27196239999999999</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>-0.20224349999999999</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>-2.0099500000000006E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>231</v>
       </c>
       <c r="B48">
         <v>2.9011700000000001E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-0.23572369999999998</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>-0.38977989999999996</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>-0.45770499999999992</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>-0.37527060000000001</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>-0.29594489999999996</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>-0.2021086</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>232</v>
       </c>
       <c r="B49">
         <v>6.6278799999999999E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-0.41074839999999996</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>-0.49898370000000003</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>-0.49047819999999998</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>-0.40029139999999996</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>-0.38855119999999999</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>-0.32179610000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>233</v>
       </c>
       <c r="B50">
         <v>-3.5084499999999998E-2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-0.54465839999999999</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-0.5843453999999999</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>-0.52644659999999999</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>-0.45588609999999996</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>-0.4227593999999999</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>-0.409551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-0.62729639999999998</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-0.65378219999999998</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>-0.60023779999999993</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>-0.5664518999999999</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>-0.52368949999999992</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>-0.50304589999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>-0.55715610000000004</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>-0.61997610000000003</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>-0.6310135</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>-0.57389100000000004</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>-0.55308420000000003</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>-0.56193879999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9688483-AFFF-4A20-9820-74818D16B6CF}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1">
+        <v>1960</v>
+      </c>
+      <c r="C1">
+        <v>1970</v>
+      </c>
+      <c r="D1">
+        <v>1980</v>
+      </c>
+      <c r="E1">
+        <v>1990</v>
+      </c>
+      <c r="F1">
+        <v>2000</v>
+      </c>
+      <c r="G1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2">
+        <v>-8.2736199999999996E-2</v>
+      </c>
+      <c r="C2">
+        <v>-0.1238089</v>
+      </c>
+      <c r="D2">
+        <v>-0.10956299999999999</v>
+      </c>
+      <c r="E2">
+        <v>-1.44046E-2</v>
+      </c>
+      <c r="F2">
+        <v>-3.0864900000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>6.1643799999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3">
+        <v>-0.19365070000000001</v>
+      </c>
+      <c r="C3">
+        <v>-0.13369059999999999</v>
+      </c>
+      <c r="D3">
+        <v>-0.18387580000000001</v>
+      </c>
+      <c r="E3">
+        <v>-0.18968409999999999</v>
+      </c>
+      <c r="F3">
+        <v>-8.4181500000000006E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.1710189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4">
+        <v>-0.21749609999999997</v>
+      </c>
+      <c r="C4">
+        <v>-0.30781799999999998</v>
+      </c>
+      <c r="D4">
+        <v>-0.362456</v>
+      </c>
+      <c r="E4">
+        <v>-0.27196239999999999</v>
+      </c>
+      <c r="F4">
+        <v>-0.20224349999999999</v>
+      </c>
+      <c r="G4">
+        <v>-2.0099500000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5">
+        <v>-0.23572369999999998</v>
+      </c>
+      <c r="C5">
+        <v>-0.38977989999999996</v>
+      </c>
+      <c r="D5">
+        <v>-0.45770499999999992</v>
+      </c>
+      <c r="E5">
+        <v>-0.37527060000000001</v>
+      </c>
+      <c r="F5">
+        <v>-0.29594489999999996</v>
+      </c>
+      <c r="G5">
+        <v>-0.2021086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6">
+        <v>-0.41074839999999996</v>
+      </c>
+      <c r="C6">
+        <v>-0.49898370000000003</v>
+      </c>
+      <c r="D6">
+        <v>-0.49047819999999998</v>
+      </c>
+      <c r="E6">
+        <v>-0.40029139999999996</v>
+      </c>
+      <c r="F6">
+        <v>-0.38855119999999999</v>
+      </c>
+      <c r="G6">
+        <v>-0.32179610000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7">
+        <v>-0.54465839999999999</v>
+      </c>
+      <c r="C7">
+        <v>-0.5843453999999999</v>
+      </c>
+      <c r="D7">
+        <v>-0.52644659999999999</v>
+      </c>
+      <c r="E7">
+        <v>-0.45588609999999996</v>
+      </c>
+      <c r="F7">
+        <v>-0.4227593999999999</v>
+      </c>
+      <c r="G7">
+        <v>-0.409551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8">
+        <v>-0.62729639999999998</v>
+      </c>
+      <c r="C8">
+        <v>-0.65378219999999998</v>
+      </c>
+      <c r="D8">
+        <v>-0.60023779999999993</v>
+      </c>
+      <c r="E8">
+        <v>-0.5664518999999999</v>
+      </c>
+      <c r="F8">
+        <v>-0.52368949999999992</v>
+      </c>
+      <c r="G8">
+        <v>-0.50304589999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9">
+        <v>-0.55715610000000004</v>
+      </c>
+      <c r="C9">
+        <v>-0.61997610000000003</v>
+      </c>
+      <c r="D9">
+        <v>-0.6310135</v>
+      </c>
+      <c r="E9">
+        <v>-0.57389100000000004</v>
+      </c>
+      <c r="F9">
+        <v>-0.55308420000000003</v>
+      </c>
+      <c r="G9">
+        <v>-0.56193879999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="str">
+        <f>"10-19"</f>
+        <v>10-19</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"20-29"</f>
+        <v>20-29</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"30-39"</f>
+        <v>30-39</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"40-49"</f>
+        <v>40-49</v>
+      </c>
+      <c r="F14" t="str">
+        <f>"50-59"</f>
+        <v>50-59</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"60-69"</f>
+        <v>60-69</v>
+      </c>
+      <c r="H14" t="str">
+        <f>"70-79"</f>
+        <v>70-79</v>
+      </c>
+      <c r="I14" t="str">
+        <f>"80"</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1960</v>
+      </c>
+      <c r="B15">
+        <v>-8.2736199999999996E-2</v>
+      </c>
+      <c r="C15">
+        <v>-0.19365070000000001</v>
+      </c>
+      <c r="D15">
+        <v>-0.21749609999999997</v>
+      </c>
+      <c r="E15">
+        <v>-0.23572369999999998</v>
+      </c>
+      <c r="F15">
+        <v>-0.41074839999999996</v>
+      </c>
+      <c r="G15">
+        <v>-0.54465839999999999</v>
+      </c>
+      <c r="H15">
+        <v>-0.62729639999999998</v>
+      </c>
+      <c r="I15">
+        <v>-0.55715610000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1970</v>
+      </c>
+      <c r="B16">
+        <v>-0.1238089</v>
+      </c>
+      <c r="C16">
+        <v>-0.13369059999999999</v>
+      </c>
+      <c r="D16">
+        <v>-0.30781799999999998</v>
+      </c>
+      <c r="E16">
+        <v>-0.38977989999999996</v>
+      </c>
+      <c r="F16">
+        <v>-0.49898370000000003</v>
+      </c>
+      <c r="G16">
+        <v>-0.5843453999999999</v>
+      </c>
+      <c r="H16">
+        <v>-0.65378219999999998</v>
+      </c>
+      <c r="I16">
+        <v>-0.61997610000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1980</v>
+      </c>
+      <c r="B17">
+        <v>-0.10956299999999999</v>
+      </c>
+      <c r="C17">
+        <v>-0.18387580000000001</v>
+      </c>
+      <c r="D17">
+        <v>-0.362456</v>
+      </c>
+      <c r="E17">
+        <v>-0.45770499999999992</v>
+      </c>
+      <c r="F17">
+        <v>-0.49047819999999998</v>
+      </c>
+      <c r="G17">
+        <v>-0.52644659999999999</v>
+      </c>
+      <c r="H17">
+        <v>-0.60023779999999993</v>
+      </c>
+      <c r="I17">
+        <v>-0.6310135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1990</v>
+      </c>
+      <c r="B18">
+        <v>-1.44046E-2</v>
+      </c>
+      <c r="C18">
+        <v>-0.18968409999999999</v>
+      </c>
+      <c r="D18">
+        <v>-0.27196239999999999</v>
+      </c>
+      <c r="E18">
+        <v>-0.37527060000000001</v>
+      </c>
+      <c r="F18">
+        <v>-0.40029139999999996</v>
+      </c>
+      <c r="G18">
+        <v>-0.45588609999999996</v>
+      </c>
+      <c r="H18">
+        <v>-0.5664518999999999</v>
+      </c>
+      <c r="I18">
+        <v>-0.57389100000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2000</v>
+      </c>
+      <c r="B19">
+        <v>-3.0864900000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>-8.4181500000000006E-2</v>
+      </c>
+      <c r="D19">
+        <v>-0.20224349999999999</v>
+      </c>
+      <c r="E19">
+        <v>-0.29594489999999996</v>
+      </c>
+      <c r="F19">
+        <v>-0.38855119999999999</v>
+      </c>
+      <c r="G19">
+        <v>-0.4227593999999999</v>
+      </c>
+      <c r="H19">
+        <v>-0.52368949999999992</v>
+      </c>
+      <c r="I19">
+        <v>-0.55308420000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2010</v>
+      </c>
+      <c r="B20">
+        <v>6.1643799999999999E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.1710189</v>
+      </c>
+      <c r="D20">
+        <v>-2.0099500000000006E-2</v>
+      </c>
+      <c r="E20">
+        <v>-0.2021086</v>
+      </c>
+      <c r="F20">
+        <v>-0.32179610000000003</v>
+      </c>
+      <c r="G20">
+        <v>-0.409551</v>
+      </c>
+      <c r="H20">
+        <v>-0.50304589999999993</v>
+      </c>
+      <c r="I20">
+        <v>-0.56193879999999996</v>
       </c>
     </row>
   </sheetData>

--- a/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
+++ b/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFABAAE-9D78-4223-B9E5-74F8558E000E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA21F60-E2A9-4C01-AD3F-C8CB64E4E9CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lnUSDummyModelTripleInteraction" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="249">
   <si>
     <t>AllCountries</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>Add Coef</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -3176,22 +3179,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-9.5576900000000006E-2</c:v>
+                  <c:v>0.33623239999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1443758</c:v>
+                  <c:v>0.28743350000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1280452</c:v>
+                  <c:v>0.30376409999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3748700000000001E-2</c:v>
+                  <c:v>0.4080606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.5717400000000001E-2</c:v>
+                  <c:v>0.40609190000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5763800000000002E-2</c:v>
+                  <c:v>0.48757309999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,22 +3266,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.20451009999999997</c:v>
+                  <c:v>0.22729920000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.15122239999999998</c:v>
+                  <c:v>0.28058689999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.19988719999999999</c:v>
+                  <c:v>0.23192210000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1955712</c:v>
+                  <c:v>0.23623810000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.8326699999999985E-2</c:v>
+                  <c:v>0.35348259999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.187247</c:v>
+                  <c:v>0.6190563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,22 +3353,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.2247189</c:v>
+                  <c:v>0.20709040000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.32084370000000001</c:v>
+                  <c:v>0.1109656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.37554529999999997</c:v>
+                  <c:v>5.6263999999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.28083330000000001</c:v>
+                  <c:v>0.150976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.2139875</c:v>
+                  <c:v>0.21782180000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.8567699999999996E-2</c:v>
+                  <c:v>0.39324160000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,22 +3440,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.24398829999999999</c:v>
+                  <c:v>0.18782100000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.40028639999999999</c:v>
+                  <c:v>3.152290000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45993079999999997</c:v>
+                  <c:v>-2.8121499999999966E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.38585030000000003</c:v>
+                  <c:v>4.5959000000000028E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.32111109999999998</c:v>
+                  <c:v>0.11069820000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.2282469</c:v>
+                  <c:v>0.2035624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,22 +3527,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.42010260000000005</c:v>
+                  <c:v>1.1706700000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.50712279999999998</c:v>
+                  <c:v>-7.5313499999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.48603459999999998</c:v>
+                  <c:v>-5.4225299999999976E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.4040434</c:v>
+                  <c:v>2.776590000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.39425060000000001</c:v>
+                  <c:v>3.75587E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.33999800000000002</c:v>
+                  <c:v>9.1811299999999985E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3611,22 +3614,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.55440870000000009</c:v>
+                  <c:v>-0.12259939999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.59397469999999997</c:v>
+                  <c:v>-0.16216539999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.52585350000000008</c:v>
+                  <c:v>-9.4044199999999967E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.46110810000000008</c:v>
+                  <c:v>-2.9298800000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.42330570000000006</c:v>
+                  <c:v>8.5036E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.42371170000000002</c:v>
+                  <c:v>8.0975999999999826E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,22 +3703,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.63400629999999991</c:v>
+                  <c:v>-0.20219700000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.66070269999999987</c:v>
+                  <c:v>-0.22889339999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.59403199999999989</c:v>
+                  <c:v>-0.1622227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.56341069999999993</c:v>
+                  <c:v>-0.13160140000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.51994109999999993</c:v>
+                  <c:v>-8.8131800000000038E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.51149899999999993</c:v>
+                  <c:v>-7.968970000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,22 +3792,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.56177909999999998</c:v>
+                  <c:v>-0.12996979999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.62453150000000002</c:v>
+                  <c:v>-0.19272220000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.61896510000000005</c:v>
+                  <c:v>-0.18715580000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.56395919999999999</c:v>
+                  <c:v>-0.13214989999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.54239300000000001</c:v>
+                  <c:v>-0.11058370000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.56449490000000002</c:v>
+                  <c:v>-0.13268560000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,28 +4136,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-9.5576900000000006E-2</c:v>
+                  <c:v>0.33623239999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.20451009999999997</c:v>
+                  <c:v>0.22729920000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.2247189</c:v>
+                  <c:v>0.20709040000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.24398829999999999</c:v>
+                  <c:v>0.18782100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.42010260000000005</c:v>
+                  <c:v>1.1706700000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.55440870000000009</c:v>
+                  <c:v>-0.12259939999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.63400629999999991</c:v>
+                  <c:v>-0.20219700000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.56177909999999998</c:v>
+                  <c:v>-0.12996979999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,28 +4234,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.1443758</c:v>
+                  <c:v>0.28743350000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.15122239999999998</c:v>
+                  <c:v>0.28058689999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.32084370000000001</c:v>
+                  <c:v>0.1109656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.40028639999999999</c:v>
+                  <c:v>3.152290000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.50712279999999998</c:v>
+                  <c:v>-7.5313499999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.59397469999999997</c:v>
+                  <c:v>-0.16216539999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.66070269999999987</c:v>
+                  <c:v>-0.22889339999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.62453150000000002</c:v>
+                  <c:v>-0.19272220000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,28 +4332,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.1280452</c:v>
+                  <c:v>0.30376409999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.19988719999999999</c:v>
+                  <c:v>0.23192210000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.37554529999999997</c:v>
+                  <c:v>5.6263999999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.45993079999999997</c:v>
+                  <c:v>-2.8121499999999966E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.48603459999999998</c:v>
+                  <c:v>-5.4225299999999976E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.52585350000000008</c:v>
+                  <c:v>-9.4044199999999967E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.59403199999999989</c:v>
+                  <c:v>-0.1622227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.61896510000000005</c:v>
+                  <c:v>-0.18715580000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4427,28 +4430,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-2.3748700000000001E-2</c:v>
+                  <c:v>0.4080606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1955712</c:v>
+                  <c:v>0.23623810000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.28083330000000001</c:v>
+                  <c:v>0.150976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.38585030000000003</c:v>
+                  <c:v>4.5959000000000028E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.4040434</c:v>
+                  <c:v>2.776590000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.46110810000000008</c:v>
+                  <c:v>-2.9298800000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.56341069999999993</c:v>
+                  <c:v>-0.13160140000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.56395919999999999</c:v>
+                  <c:v>-0.13214989999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4525,28 +4528,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-2.5717400000000001E-2</c:v>
+                  <c:v>0.40609190000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.8326699999999985E-2</c:v>
+                  <c:v>0.35348259999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.2139875</c:v>
+                  <c:v>0.21782180000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.32111109999999998</c:v>
+                  <c:v>0.11069820000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.39425060000000001</c:v>
+                  <c:v>3.75587E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.42330570000000006</c:v>
+                  <c:v>8.5036E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.51994109999999993</c:v>
+                  <c:v>-8.8131800000000038E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.54239300000000001</c:v>
+                  <c:v>-0.11058370000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4623,28 +4626,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.5763800000000002E-2</c:v>
+                  <c:v>0.48757309999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.187247</c:v>
+                  <c:v>0.6190563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.8567699999999996E-2</c:v>
+                  <c:v>0.39324160000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.2282469</c:v>
+                  <c:v>0.2035624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.33999800000000002</c:v>
+                  <c:v>9.1811299999999985E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.42371170000000002</c:v>
+                  <c:v>8.0975999999999826E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.51149899999999993</c:v>
+                  <c:v>-7.968970000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.56449490000000002</c:v>
+                  <c:v>-0.13268560000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6685,22 +6688,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-8.2736199999999996E-2</c:v>
+                  <c:v>0.34453690000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1238089</c:v>
+                  <c:v>0.30346420000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10956299999999999</c:v>
+                  <c:v>0.3177101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.44046E-2</c:v>
+                  <c:v>0.41286850000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.0864900000000001E-2</c:v>
+                  <c:v>0.39640819999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1643799999999999E-2</c:v>
+                  <c:v>0.48891689999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6772,22 +6775,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.19365070000000001</c:v>
+                  <c:v>0.23362240000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.13369059999999999</c:v>
+                  <c:v>0.29358250000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.18387580000000001</c:v>
+                  <c:v>0.24339730000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.18968409999999999</c:v>
+                  <c:v>0.23758900000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.4181500000000006E-2</c:v>
+                  <c:v>0.3430916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1710189</c:v>
+                  <c:v>0.59829200000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,22 +6862,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.21749609999999997</c:v>
+                  <c:v>0.20977700000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.30781799999999998</c:v>
+                  <c:v>0.11945510000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.362456</c:v>
+                  <c:v>6.4817100000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.27196239999999999</c:v>
+                  <c:v>0.15531070000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.20224349999999999</c:v>
+                  <c:v>0.22502960000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.0099500000000006E-2</c:v>
+                  <c:v>0.40717360000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6946,22 +6949,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.23572369999999998</c:v>
+                  <c:v>0.19154940000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.38977989999999996</c:v>
+                  <c:v>3.7493200000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45770499999999992</c:v>
+                  <c:v>-3.0431899999999956E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.37527060000000001</c:v>
+                  <c:v>5.2002500000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.29594489999999996</c:v>
+                  <c:v>0.13132820000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.2021086</c:v>
+                  <c:v>0.22516450000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7033,22 +7036,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.41074839999999996</c:v>
+                  <c:v>1.6524700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.49898370000000003</c:v>
+                  <c:v>-7.1710599999999958E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.49047819999999998</c:v>
+                  <c:v>-6.3205099999999959E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.40029139999999996</c:v>
+                  <c:v>2.6981699999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.38855119999999999</c:v>
+                  <c:v>3.8721900000000031E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.32179610000000003</c:v>
+                  <c:v>0.10547700000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7120,22 +7123,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.54465839999999999</c:v>
+                  <c:v>-0.11738529999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.5843453999999999</c:v>
+                  <c:v>-0.1570723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.52644659999999999</c:v>
+                  <c:v>-9.917349999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.45588609999999996</c:v>
+                  <c:v>-2.8613E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.4227593999999999</c:v>
+                  <c:v>4.5137000000000094E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.409551</c:v>
+                  <c:v>1.7722100000000018E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7209,22 +7212,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.62729639999999998</c:v>
+                  <c:v>-0.20002329999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.65378219999999998</c:v>
+                  <c:v>-0.22650909999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.60023779999999993</c:v>
+                  <c:v>-0.17296470000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.5664518999999999</c:v>
+                  <c:v>-0.13917879999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.52368949999999992</c:v>
+                  <c:v>-9.6416400000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.50304589999999993</c:v>
+                  <c:v>-7.5772800000000029E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7298,22 +7301,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.55715610000000004</c:v>
+                  <c:v>-0.12988300000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.61997610000000003</c:v>
+                  <c:v>-0.19270300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.6310135</c:v>
+                  <c:v>-0.20374039999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.57389100000000004</c:v>
+                  <c:v>-0.14661790000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.55308420000000003</c:v>
+                  <c:v>-0.12581110000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.56193879999999996</c:v>
+                  <c:v>-0.13466569999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7642,28 +7645,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-8.2736199999999996E-2</c:v>
+                  <c:v>0.34453690000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.19365070000000001</c:v>
+                  <c:v>0.23362240000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.21749609999999997</c:v>
+                  <c:v>0.20977700000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.23572369999999998</c:v>
+                  <c:v>0.19154940000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.41074839999999996</c:v>
+                  <c:v>1.6524700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.54465839999999999</c:v>
+                  <c:v>-0.11738529999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.62729639999999998</c:v>
+                  <c:v>-0.20002329999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.55715610000000004</c:v>
+                  <c:v>-0.12988300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7740,28 +7743,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.1238089</c:v>
+                  <c:v>0.30346420000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.13369059999999999</c:v>
+                  <c:v>0.29358250000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.30781799999999998</c:v>
+                  <c:v>0.11945510000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.38977989999999996</c:v>
+                  <c:v>3.7493200000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.49898370000000003</c:v>
+                  <c:v>-7.1710599999999958E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5843453999999999</c:v>
+                  <c:v>-0.1570723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.65378219999999998</c:v>
+                  <c:v>-0.22650909999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.61997610000000003</c:v>
+                  <c:v>-0.19270300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7838,28 +7841,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.10956299999999999</c:v>
+                  <c:v>0.3177101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.18387580000000001</c:v>
+                  <c:v>0.24339730000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.362456</c:v>
+                  <c:v>6.4817100000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.45770499999999992</c:v>
+                  <c:v>-3.0431899999999956E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.49047819999999998</c:v>
+                  <c:v>-6.3205099999999959E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.52644659999999999</c:v>
+                  <c:v>-9.917349999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.60023779999999993</c:v>
+                  <c:v>-0.17296470000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.6310135</c:v>
+                  <c:v>-0.20374039999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7936,28 +7939,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-1.44046E-2</c:v>
+                  <c:v>0.41286850000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.18968409999999999</c:v>
+                  <c:v>0.23758900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.27196239999999999</c:v>
+                  <c:v>0.15531070000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.37527060000000001</c:v>
+                  <c:v>5.2002500000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.40029139999999996</c:v>
+                  <c:v>2.6981699999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.45588609999999996</c:v>
+                  <c:v>-2.8613E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.5664518999999999</c:v>
+                  <c:v>-0.13917879999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.57389100000000004</c:v>
+                  <c:v>-0.14661790000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8034,28 +8037,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-3.0864900000000001E-2</c:v>
+                  <c:v>0.39640819999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.4181500000000006E-2</c:v>
+                  <c:v>0.3430916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.20224349999999999</c:v>
+                  <c:v>0.22502960000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.29594489999999996</c:v>
+                  <c:v>0.13132820000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.38855119999999999</c:v>
+                  <c:v>3.8721900000000031E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.4227593999999999</c:v>
+                  <c:v>4.5137000000000094E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.52368949999999992</c:v>
+                  <c:v>-9.6416400000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.55308420000000003</c:v>
+                  <c:v>-0.12581110000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8132,28 +8135,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.1643799999999999E-2</c:v>
+                  <c:v>0.48891689999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1710189</c:v>
+                  <c:v>0.59829200000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0099500000000006E-2</c:v>
+                  <c:v>0.40717360000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.2021086</c:v>
+                  <c:v>0.22516450000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.32179610000000003</c:v>
+                  <c:v>0.10547700000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.409551</c:v>
+                  <c:v>1.7722100000000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.50304589999999993</c:v>
+                  <c:v>-7.5772800000000029E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.56193879999999996</c:v>
+                  <c:v>-0.13466569999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12932,15 +12935,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2043112</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13051,15 +13054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13087,15 +13090,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>117659</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90766</xdr:rowOff>
+      <xdr:colOff>431425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13422,8 +13425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:C67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16029,8 +16032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17538,10 +17541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6752113A-E80F-4D8E-962A-42C6198FCF3D}">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:I19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17577,22 +17580,28 @@
         <v>237</v>
       </c>
       <c r="B3">
-        <v>-9.5576900000000006E-2</v>
+        <f>-0.0955769+$B$27</f>
+        <v>0.33623239999999999</v>
       </c>
       <c r="C3">
-        <v>-0.1443758</v>
+        <f>B27-0.1443758</f>
+        <v>0.28743350000000001</v>
       </c>
       <c r="D3">
-        <v>-0.1280452</v>
+        <f>B27-0.1280452</f>
+        <v>0.30376409999999998</v>
       </c>
       <c r="E3">
-        <v>-2.3748700000000001E-2</v>
+        <f>B27-0.0237487</f>
+        <v>0.4080606</v>
       </c>
       <c r="F3">
-        <v>-2.5717400000000001E-2</v>
+        <f>B27-0.0257174</f>
+        <v>0.40609190000000001</v>
       </c>
       <c r="G3">
-        <v>5.5763800000000002E-2</v>
+        <f>B27+0.0557638</f>
+        <v>0.48757309999999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -17600,22 +17609,28 @@
         <v>238</v>
       </c>
       <c r="B4">
-        <v>-0.20451009999999997</v>
+        <f>-0.2045101+B27</f>
+        <v>0.22729920000000001</v>
       </c>
       <c r="C4">
-        <v>-0.15122239999999998</v>
+        <f>B27-0.1512224</f>
+        <v>0.28058689999999997</v>
       </c>
       <c r="D4">
-        <v>-0.19988719999999999</v>
+        <f>B27-0.1998872</f>
+        <v>0.23192210000000002</v>
       </c>
       <c r="E4">
-        <v>-0.1955712</v>
+        <f>B27-0.1955712</f>
+        <v>0.23623810000000001</v>
       </c>
       <c r="F4">
-        <v>-7.8326699999999985E-2</v>
+        <f>B27-0.0783267</f>
+        <v>0.35348259999999998</v>
       </c>
       <c r="G4">
-        <v>0.187247</v>
+        <f>0.187247+B27</f>
+        <v>0.6190563</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -17623,22 +17638,28 @@
         <v>239</v>
       </c>
       <c r="B5">
-        <v>-0.2247189</v>
+        <f>-0.2247189+B27</f>
+        <v>0.20709040000000001</v>
       </c>
       <c r="C5">
-        <v>-0.32084370000000001</v>
+        <f>B27-0.3208437</f>
+        <v>0.1109656</v>
       </c>
       <c r="D5">
-        <v>-0.37554529999999997</v>
+        <f>B27-0.3755453</f>
+        <v>5.6263999999999981E-2</v>
       </c>
       <c r="E5">
-        <v>-0.28083330000000001</v>
+        <f>B27-0.2808333</f>
+        <v>0.150976</v>
       </c>
       <c r="F5">
-        <v>-0.2139875</v>
+        <f>B27-0.2139875</f>
+        <v>0.21782180000000001</v>
       </c>
       <c r="G5">
-        <v>-3.8567699999999996E-2</v>
+        <f>B27-0.0385677</f>
+        <v>0.39324160000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -17646,22 +17667,28 @@
         <v>240</v>
       </c>
       <c r="B6">
-        <v>-0.24398829999999999</v>
+        <f>-0.2439883+B27</f>
+        <v>0.18782100000000002</v>
       </c>
       <c r="C6">
-        <v>-0.40028639999999999</v>
+        <f>B27-0.4002864</f>
+        <v>3.152290000000002E-2</v>
       </c>
       <c r="D6">
-        <v>-0.45993079999999997</v>
+        <f>B27-0.4599308</f>
+        <v>-2.8121499999999966E-2</v>
       </c>
       <c r="E6">
-        <v>-0.38585030000000003</v>
+        <f>B27-0.3858503</f>
+        <v>4.5959000000000028E-2</v>
       </c>
       <c r="F6">
-        <v>-0.32111109999999998</v>
+        <f>B27-0.3211111</f>
+        <v>0.11069820000000002</v>
       </c>
       <c r="G6">
-        <v>-0.2282469</v>
+        <f>B27-0.2282469</f>
+        <v>0.2035624</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -17669,22 +17696,28 @@
         <v>241</v>
       </c>
       <c r="B7">
-        <v>-0.42010260000000005</v>
+        <f>-0.4201026+B27</f>
+        <v>1.1706700000000014E-2</v>
       </c>
       <c r="C7">
-        <v>-0.50712279999999998</v>
+        <f>B27-0.5071228</f>
+        <v>-7.5313499999999978E-2</v>
       </c>
       <c r="D7">
-        <v>-0.48603459999999998</v>
+        <f>B27-0.4860346</f>
+        <v>-5.4225299999999976E-2</v>
       </c>
       <c r="E7">
-        <v>-0.4040434</v>
+        <f>B27-0.4040434</f>
+        <v>2.776590000000001E-2</v>
       </c>
       <c r="F7">
-        <v>-0.39425060000000001</v>
+        <f>B27-0.3942506</f>
+        <v>3.75587E-2</v>
       </c>
       <c r="G7">
-        <v>-0.33999800000000002</v>
+        <f>B27-0.339998</f>
+        <v>9.1811299999999985E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -17692,22 +17725,28 @@
         <v>242</v>
       </c>
       <c r="B8">
-        <v>-0.55440870000000009</v>
+        <f>-0.5544087+B27</f>
+        <v>-0.12259939999999997</v>
       </c>
       <c r="C8">
-        <v>-0.59397469999999997</v>
+        <f>B27-0.5939747</f>
+        <v>-0.16216539999999996</v>
       </c>
       <c r="D8">
-        <v>-0.52585350000000008</v>
+        <f>B27-0.5258535</f>
+        <v>-9.4044199999999967E-2</v>
       </c>
       <c r="E8">
-        <v>-0.46110810000000008</v>
+        <f>B27-0.4611081</f>
+        <v>-2.9298800000000014E-2</v>
       </c>
       <c r="F8">
-        <v>-0.42330570000000006</v>
+        <f>B27-0.4233057</f>
+        <v>8.5036E-3</v>
       </c>
       <c r="G8">
-        <v>-0.42371170000000002</v>
+        <f>B27-0.4237117</f>
+        <v>8.0975999999999826E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -17715,22 +17754,28 @@
         <v>243</v>
       </c>
       <c r="B9">
-        <v>-0.63400629999999991</v>
+        <f>-0.6340063+B27</f>
+        <v>-0.20219700000000002</v>
       </c>
       <c r="C9">
-        <v>-0.66070269999999987</v>
+        <f>B27-0.6607027</f>
+        <v>-0.22889339999999997</v>
       </c>
       <c r="D9">
-        <v>-0.59403199999999989</v>
+        <f>B27-0.594032</f>
+        <v>-0.1622227</v>
       </c>
       <c r="E9">
-        <v>-0.56341069999999993</v>
+        <f>B27-0.5634107</f>
+        <v>-0.13160140000000004</v>
       </c>
       <c r="F9">
-        <v>-0.51994109999999993</v>
+        <f>B27-0.5199411</f>
+        <v>-8.8131800000000038E-2</v>
       </c>
       <c r="G9">
-        <v>-0.51149899999999993</v>
+        <f>B27-0.511499</f>
+        <v>-7.968970000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -17738,22 +17783,28 @@
         <v>244</v>
       </c>
       <c r="B10">
-        <v>-0.56177909999999998</v>
+        <f>-0.5617791+B27</f>
+        <v>-0.12996979999999997</v>
       </c>
       <c r="C10">
-        <v>-0.62453150000000002</v>
+        <f>B27-0.6245315</f>
+        <v>-0.19272220000000001</v>
       </c>
       <c r="D10">
-        <v>-0.61896510000000005</v>
+        <f>B27-0.6189651</f>
+        <v>-0.18715580000000004</v>
       </c>
       <c r="E10">
-        <v>-0.56395919999999999</v>
+        <f>B27-0.5639592</f>
+        <v>-0.13214989999999999</v>
       </c>
       <c r="F10">
-        <v>-0.54239300000000001</v>
+        <f>B27-0.542393</f>
+        <v>-0.11058370000000001</v>
       </c>
       <c r="G10">
-        <v>-0.56449490000000002</v>
+        <f>B27-0.5644949</f>
+        <v>-0.13268560000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -17798,28 +17849,36 @@
         <v>1960</v>
       </c>
       <c r="B18">
-        <v>-9.5576900000000006E-2</v>
+        <f>B27-0.0955769</f>
+        <v>0.33623239999999999</v>
       </c>
       <c r="C18">
-        <v>-0.20451009999999997</v>
+        <f>B27-0.2045101</f>
+        <v>0.22729920000000001</v>
       </c>
       <c r="D18">
-        <v>-0.2247189</v>
+        <f>B27-0.2247189</f>
+        <v>0.20709040000000001</v>
       </c>
       <c r="E18">
-        <v>-0.24398829999999999</v>
+        <f>B27-0.2439883</f>
+        <v>0.18782100000000002</v>
       </c>
       <c r="F18">
-        <v>-0.42010260000000005</v>
+        <f>B27-0.4201026</f>
+        <v>1.1706700000000014E-2</v>
       </c>
       <c r="G18">
-        <v>-0.55440870000000009</v>
+        <f>B27-0.5544087</f>
+        <v>-0.12259939999999997</v>
       </c>
       <c r="H18">
-        <v>-0.63400629999999991</v>
+        <f>B27-0.6340063</f>
+        <v>-0.20219700000000002</v>
       </c>
       <c r="I18">
-        <v>-0.56177909999999998</v>
+        <f>B27-0.5617791</f>
+        <v>-0.12996979999999997</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -17827,28 +17886,36 @@
         <v>1970</v>
       </c>
       <c r="B19">
-        <v>-0.1443758</v>
+        <f>B27-0.1443758</f>
+        <v>0.28743350000000001</v>
       </c>
       <c r="C19">
-        <v>-0.15122239999999998</v>
+        <f>B27-0.1512224</f>
+        <v>0.28058689999999997</v>
       </c>
       <c r="D19">
-        <v>-0.32084370000000001</v>
+        <f>B27-0.3208437</f>
+        <v>0.1109656</v>
       </c>
       <c r="E19">
-        <v>-0.40028639999999999</v>
+        <f>B27-0.4002864</f>
+        <v>3.152290000000002E-2</v>
       </c>
       <c r="F19">
-        <v>-0.50712279999999998</v>
+        <f>B27-0.5071228</f>
+        <v>-7.5313499999999978E-2</v>
       </c>
       <c r="G19">
-        <v>-0.59397469999999997</v>
+        <f>B27-0.5939747</f>
+        <v>-0.16216539999999996</v>
       </c>
       <c r="H19">
-        <v>-0.66070269999999987</v>
+        <f>B27-0.6607027</f>
+        <v>-0.22889339999999997</v>
       </c>
       <c r="I19">
-        <v>-0.62453150000000002</v>
+        <f>B27-0.6245315</f>
+        <v>-0.19272220000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -17856,28 +17923,36 @@
         <v>1980</v>
       </c>
       <c r="B20">
-        <v>-0.1280452</v>
+        <f>B27-0.1280452</f>
+        <v>0.30376409999999998</v>
       </c>
       <c r="C20">
-        <v>-0.19988719999999999</v>
+        <f>B27-0.1998872</f>
+        <v>0.23192210000000002</v>
       </c>
       <c r="D20">
-        <v>-0.37554529999999997</v>
+        <f>B27-0.3755453</f>
+        <v>5.6263999999999981E-2</v>
       </c>
       <c r="E20">
-        <v>-0.45993079999999997</v>
+        <f>B27-0.4599308</f>
+        <v>-2.8121499999999966E-2</v>
       </c>
       <c r="F20">
-        <v>-0.48603459999999998</v>
+        <f>B27-0.4860346</f>
+        <v>-5.4225299999999976E-2</v>
       </c>
       <c r="G20">
-        <v>-0.52585350000000008</v>
+        <f>B27-0.5258535</f>
+        <v>-9.4044199999999967E-2</v>
       </c>
       <c r="H20">
-        <v>-0.59403199999999989</v>
+        <f>B27-0.594032</f>
+        <v>-0.1622227</v>
       </c>
       <c r="I20">
-        <v>-0.61896510000000005</v>
+        <f>B27-0.6189651</f>
+        <v>-0.18715580000000004</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -17885,28 +17960,36 @@
         <v>1990</v>
       </c>
       <c r="B21">
-        <v>-2.3748700000000001E-2</v>
+        <f>B27-0.0237487</f>
+        <v>0.4080606</v>
       </c>
       <c r="C21">
-        <v>-0.1955712</v>
+        <f>B27-0.1955712</f>
+        <v>0.23623810000000001</v>
       </c>
       <c r="D21">
-        <v>-0.28083330000000001</v>
+        <f>B27-0.2808333</f>
+        <v>0.150976</v>
       </c>
       <c r="E21">
-        <v>-0.38585030000000003</v>
+        <f>B27-0.3858503</f>
+        <v>4.5959000000000028E-2</v>
       </c>
       <c r="F21">
-        <v>-0.4040434</v>
+        <f>B27-0.4040434</f>
+        <v>2.776590000000001E-2</v>
       </c>
       <c r="G21">
-        <v>-0.46110810000000008</v>
+        <f>B27-0.4611081</f>
+        <v>-2.9298800000000014E-2</v>
       </c>
       <c r="H21">
-        <v>-0.56341069999999993</v>
+        <f>B27-0.5634107</f>
+        <v>-0.13160140000000004</v>
       </c>
       <c r="I21">
-        <v>-0.56395919999999999</v>
+        <f>B27-0.5639592</f>
+        <v>-0.13214989999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -17914,28 +17997,36 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>-2.5717400000000001E-2</v>
+        <f>B27-0.0257174</f>
+        <v>0.40609190000000001</v>
       </c>
       <c r="C22">
-        <v>-7.8326699999999985E-2</v>
+        <f>B27-0.0783267</f>
+        <v>0.35348259999999998</v>
       </c>
       <c r="D22">
-        <v>-0.2139875</v>
+        <f>B27-0.2139875</f>
+        <v>0.21782180000000001</v>
       </c>
       <c r="E22">
-        <v>-0.32111109999999998</v>
+        <f>B27-0.3211111</f>
+        <v>0.11069820000000002</v>
       </c>
       <c r="F22">
-        <v>-0.39425060000000001</v>
+        <f>B27-0.3942506</f>
+        <v>3.75587E-2</v>
       </c>
       <c r="G22">
-        <v>-0.42330570000000006</v>
+        <f>B27-0.4233057</f>
+        <v>8.5036E-3</v>
       </c>
       <c r="H22">
-        <v>-0.51994109999999993</v>
+        <f>B27-0.5199411</f>
+        <v>-8.8131800000000038E-2</v>
       </c>
       <c r="I22">
-        <v>-0.54239300000000001</v>
+        <f>B27-0.542393</f>
+        <v>-0.11058370000000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -17943,28 +18034,49 @@
         <v>2010</v>
       </c>
       <c r="B23">
-        <v>5.5763800000000002E-2</v>
+        <f>B27+0.0557638</f>
+        <v>0.48757309999999998</v>
       </c>
       <c r="C23">
-        <v>0.187247</v>
+        <f>B27+0.187247</f>
+        <v>0.6190563</v>
       </c>
       <c r="D23">
-        <v>-3.8567699999999996E-2</v>
+        <f>B27-0.0385677</f>
+        <v>0.39324160000000002</v>
       </c>
       <c r="E23">
-        <v>-0.2282469</v>
+        <f>B27-0.2282469</f>
+        <v>0.2035624</v>
       </c>
       <c r="F23">
-        <v>-0.33999800000000002</v>
+        <f>B27-0.339998</f>
+        <v>9.1811299999999985E-2</v>
       </c>
       <c r="G23">
-        <v>-0.42371170000000002</v>
+        <f>B27-0.4237117</f>
+        <v>8.0975999999999826E-3</v>
       </c>
       <c r="H23">
-        <v>-0.51149899999999993</v>
+        <f>B27-0.511499</f>
+        <v>-7.968970000000003E-2</v>
       </c>
       <c r="I23">
-        <v>-0.56449490000000002</v>
+        <f>B27-0.5644949</f>
+        <v>-0.13268560000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0.43180930000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19321,10 +19433,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9688483-AFFF-4A20-9820-74818D16B6CF}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19363,22 +19475,28 @@
         <v>237</v>
       </c>
       <c r="B2">
-        <v>-8.2736199999999996E-2</v>
+        <f>B29-0.0827362</f>
+        <v>0.34453690000000003</v>
       </c>
       <c r="C2">
-        <v>-0.1238089</v>
+        <f>B29-0.1238089</f>
+        <v>0.30346420000000002</v>
       </c>
       <c r="D2">
-        <v>-0.10956299999999999</v>
+        <f>B29-0.109563</f>
+        <v>0.3177101</v>
       </c>
       <c r="E2">
-        <v>-1.44046E-2</v>
+        <f>B29-0.0144046</f>
+        <v>0.41286850000000003</v>
       </c>
       <c r="F2">
-        <v>-3.0864900000000001E-2</v>
+        <f>B29-0.0308649</f>
+        <v>0.39640819999999999</v>
       </c>
       <c r="G2">
-        <v>6.1643799999999999E-2</v>
+        <f>B29+0.0616438</f>
+        <v>0.48891689999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -19386,22 +19504,28 @@
         <v>238</v>
       </c>
       <c r="B3">
-        <v>-0.19365070000000001</v>
+        <f>B29-0.1936507</f>
+        <v>0.23362240000000001</v>
       </c>
       <c r="C3">
-        <v>-0.13369059999999999</v>
+        <f>B29-0.1336906</f>
+        <v>0.29358250000000002</v>
       </c>
       <c r="D3">
-        <v>-0.18387580000000001</v>
+        <f>B29-0.1838758</f>
+        <v>0.24339730000000001</v>
       </c>
       <c r="E3">
-        <v>-0.18968409999999999</v>
+        <f>B29-0.1896841</f>
+        <v>0.23758900000000002</v>
       </c>
       <c r="F3">
-        <v>-8.4181500000000006E-2</v>
+        <f>B29-0.0841815</f>
+        <v>0.3430916</v>
       </c>
       <c r="G3">
-        <v>0.1710189</v>
+        <f>B29+0.1710189</f>
+        <v>0.59829200000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -19409,22 +19533,28 @@
         <v>239</v>
       </c>
       <c r="B4">
-        <v>-0.21749609999999997</v>
+        <f>B29-0.2174961</f>
+        <v>0.20977700000000002</v>
       </c>
       <c r="C4">
-        <v>-0.30781799999999998</v>
+        <f>B29-0.307818</f>
+        <v>0.11945510000000004</v>
       </c>
       <c r="D4">
-        <v>-0.362456</v>
+        <f>B29-0.362456</f>
+        <v>6.4817100000000016E-2</v>
       </c>
       <c r="E4">
-        <v>-0.27196239999999999</v>
+        <f>B29-0.2719624</f>
+        <v>0.15531070000000002</v>
       </c>
       <c r="F4">
-        <v>-0.20224349999999999</v>
+        <f>B29-0.2022435</f>
+        <v>0.22502960000000002</v>
       </c>
       <c r="G4">
-        <v>-2.0099500000000006E-2</v>
+        <f>B29-0.0200995</f>
+        <v>0.40717360000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -19432,22 +19562,28 @@
         <v>240</v>
       </c>
       <c r="B5">
-        <v>-0.23572369999999998</v>
+        <f>B29-0.2357237</f>
+        <v>0.19154940000000001</v>
       </c>
       <c r="C5">
-        <v>-0.38977989999999996</v>
+        <f>B29-0.3897799</f>
+        <v>3.7493200000000004E-2</v>
       </c>
       <c r="D5">
-        <v>-0.45770499999999992</v>
+        <f>B29-0.457705</f>
+        <v>-3.0431899999999956E-2</v>
       </c>
       <c r="E5">
-        <v>-0.37527060000000001</v>
+        <f>B29-0.3752706</f>
+        <v>5.2002500000000007E-2</v>
       </c>
       <c r="F5">
-        <v>-0.29594489999999996</v>
+        <f>B29-0.2959449</f>
+        <v>0.13132820000000001</v>
       </c>
       <c r="G5">
-        <v>-0.2021086</v>
+        <f>B29-0.2021086</f>
+        <v>0.22516450000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -19455,22 +19591,28 @@
         <v>241</v>
       </c>
       <c r="B6">
-        <v>-0.41074839999999996</v>
+        <f>B29-0.4107484</f>
+        <v>1.6524700000000003E-2</v>
       </c>
       <c r="C6">
-        <v>-0.49898370000000003</v>
+        <f>B29-0.4989837</f>
+        <v>-7.1710599999999958E-2</v>
       </c>
       <c r="D6">
-        <v>-0.49047819999999998</v>
+        <f>B29-0.4904782</f>
+        <v>-6.3205099999999959E-2</v>
       </c>
       <c r="E6">
-        <v>-0.40029139999999996</v>
+        <f>B29-0.4002914</f>
+        <v>2.6981699999999997E-2</v>
       </c>
       <c r="F6">
-        <v>-0.38855119999999999</v>
+        <f>B29-0.3885512</f>
+        <v>3.8721900000000031E-2</v>
       </c>
       <c r="G6">
-        <v>-0.32179610000000003</v>
+        <f>B29-0.3217961</f>
+        <v>0.10547700000000004</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -19478,22 +19620,28 @@
         <v>242</v>
       </c>
       <c r="B7">
-        <v>-0.54465839999999999</v>
+        <f>B29-0.5446584</f>
+        <v>-0.11738529999999997</v>
       </c>
       <c r="C7">
-        <v>-0.5843453999999999</v>
+        <f>B29-0.5843454</f>
+        <v>-0.1570723</v>
       </c>
       <c r="D7">
-        <v>-0.52644659999999999</v>
+        <f>B29-0.5264466</f>
+        <v>-9.917349999999997E-2</v>
       </c>
       <c r="E7">
-        <v>-0.45588609999999996</v>
+        <f>B29-0.4558861</f>
+        <v>-2.8613E-2</v>
       </c>
       <c r="F7">
-        <v>-0.4227593999999999</v>
+        <f>B29-0.4227594</f>
+        <v>4.5137000000000094E-3</v>
       </c>
       <c r="G7">
-        <v>-0.409551</v>
+        <f>B29-0.409551</f>
+        <v>1.7722100000000018E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -19501,22 +19649,28 @@
         <v>243</v>
       </c>
       <c r="B8">
-        <v>-0.62729639999999998</v>
+        <f>B29-0.6272964</f>
+        <v>-0.20002329999999996</v>
       </c>
       <c r="C8">
-        <v>-0.65378219999999998</v>
+        <f>B29-0.6537822</f>
+        <v>-0.22650909999999996</v>
       </c>
       <c r="D8">
-        <v>-0.60023779999999993</v>
+        <f>B29-0.6002378</f>
+        <v>-0.17296470000000003</v>
       </c>
       <c r="E8">
-        <v>-0.5664518999999999</v>
+        <f>B29-0.5664519</f>
+        <v>-0.13917879999999999</v>
       </c>
       <c r="F8">
-        <v>-0.52368949999999992</v>
+        <f>B29-0.5236895</f>
+        <v>-9.6416400000000013E-2</v>
       </c>
       <c r="G8">
-        <v>-0.50304589999999993</v>
+        <f>B29-0.5030459</f>
+        <v>-7.5772800000000029E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -19524,22 +19678,28 @@
         <v>244</v>
       </c>
       <c r="B9">
-        <v>-0.55715610000000004</v>
+        <f>B29-0.5571561</f>
+        <v>-0.12988300000000003</v>
       </c>
       <c r="C9">
-        <v>-0.61997610000000003</v>
+        <f>B29-0.6199761</f>
+        <v>-0.19270300000000001</v>
       </c>
       <c r="D9">
-        <v>-0.6310135</v>
+        <f>B29-0.6310135</f>
+        <v>-0.20374039999999999</v>
       </c>
       <c r="E9">
-        <v>-0.57389100000000004</v>
+        <f>B29-0.573891</f>
+        <v>-0.14661790000000002</v>
       </c>
       <c r="F9">
-        <v>-0.55308420000000003</v>
+        <f>B29-0.5530842</f>
+        <v>-0.12581110000000001</v>
       </c>
       <c r="G9">
-        <v>-0.56193879999999996</v>
+        <f>B29-0.5619388</f>
+        <v>-0.13466569999999994</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -19584,28 +19744,36 @@
         <v>1960</v>
       </c>
       <c r="B15">
-        <v>-8.2736199999999996E-2</v>
+        <f>B29-0.0827362</f>
+        <v>0.34453690000000003</v>
       </c>
       <c r="C15">
-        <v>-0.19365070000000001</v>
+        <f>B29-0.1936507</f>
+        <v>0.23362240000000001</v>
       </c>
       <c r="D15">
-        <v>-0.21749609999999997</v>
+        <f>B29-0.2174961</f>
+        <v>0.20977700000000002</v>
       </c>
       <c r="E15">
-        <v>-0.23572369999999998</v>
+        <f>B29-0.2357237</f>
+        <v>0.19154940000000001</v>
       </c>
       <c r="F15">
-        <v>-0.41074839999999996</v>
+        <f>B29-0.4107484</f>
+        <v>1.6524700000000003E-2</v>
       </c>
       <c r="G15">
-        <v>-0.54465839999999999</v>
+        <f>B29-0.5446584</f>
+        <v>-0.11738529999999997</v>
       </c>
       <c r="H15">
-        <v>-0.62729639999999998</v>
+        <f>B29-0.6272964</f>
+        <v>-0.20002329999999996</v>
       </c>
       <c r="I15">
-        <v>-0.55715610000000004</v>
+        <f>B29-0.5571561</f>
+        <v>-0.12988300000000003</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -19613,28 +19781,36 @@
         <v>1970</v>
       </c>
       <c r="B16">
-        <v>-0.1238089</v>
+        <f>B29-0.1238089</f>
+        <v>0.30346420000000002</v>
       </c>
       <c r="C16">
-        <v>-0.13369059999999999</v>
+        <f>B29-0.1336906</f>
+        <v>0.29358250000000002</v>
       </c>
       <c r="D16">
-        <v>-0.30781799999999998</v>
+        <f>B29-0.307818</f>
+        <v>0.11945510000000004</v>
       </c>
       <c r="E16">
-        <v>-0.38977989999999996</v>
+        <f>B29-0.3897799</f>
+        <v>3.7493200000000004E-2</v>
       </c>
       <c r="F16">
-        <v>-0.49898370000000003</v>
+        <f>B29-0.4989837</f>
+        <v>-7.1710599999999958E-2</v>
       </c>
       <c r="G16">
-        <v>-0.5843453999999999</v>
+        <f>B29-0.5843454</f>
+        <v>-0.1570723</v>
       </c>
       <c r="H16">
-        <v>-0.65378219999999998</v>
+        <f>B29-0.6537822</f>
+        <v>-0.22650909999999996</v>
       </c>
       <c r="I16">
-        <v>-0.61997610000000003</v>
+        <f>B29-0.6199761</f>
+        <v>-0.19270300000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -19642,28 +19818,36 @@
         <v>1980</v>
       </c>
       <c r="B17">
-        <v>-0.10956299999999999</v>
+        <f>B29-0.109563</f>
+        <v>0.3177101</v>
       </c>
       <c r="C17">
-        <v>-0.18387580000000001</v>
+        <f>B29-0.1838758</f>
+        <v>0.24339730000000001</v>
       </c>
       <c r="D17">
-        <v>-0.362456</v>
+        <f>B29-0.362456</f>
+        <v>6.4817100000000016E-2</v>
       </c>
       <c r="E17">
-        <v>-0.45770499999999992</v>
+        <f>B29-0.457705</f>
+        <v>-3.0431899999999956E-2</v>
       </c>
       <c r="F17">
-        <v>-0.49047819999999998</v>
+        <f>B29-0.4904782</f>
+        <v>-6.3205099999999959E-2</v>
       </c>
       <c r="G17">
-        <v>-0.52644659999999999</v>
+        <f>B29-0.5264466</f>
+        <v>-9.917349999999997E-2</v>
       </c>
       <c r="H17">
-        <v>-0.60023779999999993</v>
+        <f>B29-0.6002378</f>
+        <v>-0.17296470000000003</v>
       </c>
       <c r="I17">
-        <v>-0.6310135</v>
+        <f>B29-0.6310135</f>
+        <v>-0.20374039999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -19671,28 +19855,36 @@
         <v>1990</v>
       </c>
       <c r="B18">
-        <v>-1.44046E-2</v>
+        <f>B29-0.0144046</f>
+        <v>0.41286850000000003</v>
       </c>
       <c r="C18">
-        <v>-0.18968409999999999</v>
+        <f>B29-0.1896841</f>
+        <v>0.23758900000000002</v>
       </c>
       <c r="D18">
-        <v>-0.27196239999999999</v>
+        <f>B29-0.2719624</f>
+        <v>0.15531070000000002</v>
       </c>
       <c r="E18">
-        <v>-0.37527060000000001</v>
+        <f>B29-0.3752706</f>
+        <v>5.2002500000000007E-2</v>
       </c>
       <c r="F18">
-        <v>-0.40029139999999996</v>
+        <f>B29-0.4002914</f>
+        <v>2.6981699999999997E-2</v>
       </c>
       <c r="G18">
-        <v>-0.45588609999999996</v>
+        <f>B29-0.4558861</f>
+        <v>-2.8613E-2</v>
       </c>
       <c r="H18">
-        <v>-0.5664518999999999</v>
+        <f>B29-0.5664519</f>
+        <v>-0.13917879999999999</v>
       </c>
       <c r="I18">
-        <v>-0.57389100000000004</v>
+        <f>B29-0.573891</f>
+        <v>-0.14661790000000002</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -19700,28 +19892,36 @@
         <v>2000</v>
       </c>
       <c r="B19">
-        <v>-3.0864900000000001E-2</v>
+        <f>B29-0.0308649</f>
+        <v>0.39640819999999999</v>
       </c>
       <c r="C19">
-        <v>-8.4181500000000006E-2</v>
+        <f>B29-0.0841815</f>
+        <v>0.3430916</v>
       </c>
       <c r="D19">
-        <v>-0.20224349999999999</v>
+        <f>B29-0.2022435</f>
+        <v>0.22502960000000002</v>
       </c>
       <c r="E19">
-        <v>-0.29594489999999996</v>
+        <f>B29-0.2959449</f>
+        <v>0.13132820000000001</v>
       </c>
       <c r="F19">
-        <v>-0.38855119999999999</v>
+        <f>B29-0.3885512</f>
+        <v>3.8721900000000031E-2</v>
       </c>
       <c r="G19">
-        <v>-0.4227593999999999</v>
+        <f>B29-0.4227594</f>
+        <v>4.5137000000000094E-3</v>
       </c>
       <c r="H19">
-        <v>-0.52368949999999992</v>
+        <f>B29-0.5236895</f>
+        <v>-9.6416400000000013E-2</v>
       </c>
       <c r="I19">
-        <v>-0.55308420000000003</v>
+        <f>B29-0.5530842</f>
+        <v>-0.12581110000000001</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -19729,28 +19929,44 @@
         <v>2010</v>
       </c>
       <c r="B20">
-        <v>6.1643799999999999E-2</v>
+        <f>B29+0.0616438</f>
+        <v>0.48891689999999999</v>
       </c>
       <c r="C20">
-        <v>0.1710189</v>
+        <f>B29+0.1710189</f>
+        <v>0.59829200000000005</v>
       </c>
       <c r="D20">
-        <v>-2.0099500000000006E-2</v>
+        <f>B29-0.0200995</f>
+        <v>0.40717360000000002</v>
       </c>
       <c r="E20">
-        <v>-0.2021086</v>
+        <f>B29-0.2021086</f>
+        <v>0.22516450000000002</v>
       </c>
       <c r="F20">
-        <v>-0.32179610000000003</v>
+        <f>B29-0.3217961</f>
+        <v>0.10547700000000004</v>
       </c>
       <c r="G20">
-        <v>-0.409551</v>
+        <f>B29-0.409551</f>
+        <v>1.7722100000000018E-2</v>
       </c>
       <c r="H20">
-        <v>-0.50304589999999993</v>
+        <f>B29-0.5030459</f>
+        <v>-7.5772800000000029E-2</v>
       </c>
       <c r="I20">
-        <v>-0.56193879999999996</v>
+        <f>B29-0.5619388</f>
+        <v>-0.13466569999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>0.42727310000000002</v>
       </c>
     </row>
   </sheetData>

--- a/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
+++ b/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA21F60-E2A9-4C01-AD3F-C8CB64E4E9CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD350E-339C-4388-BD26-026FB3A1438E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3084,6 +3084,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>X Axis is Year Decade; Lines are Age Categories</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4036,6 +4066,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>X Axis is Age Category; Lines are YearDecades</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6593,6 +6653,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>X Axis is Year Decade; Lines are Age Categories</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.46883335280335892"/>
+          <c:y val="1.402061582519052E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7545,6 +7643,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>X Axis is Age Category; Lines are YearDecades</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12899,16 +13027,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12935,16 +13063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2043112</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13053,16 +13181,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638735</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1804147</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>481852</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112057</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13089,16 +13217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>431425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>34737</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1400736</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16033,12 +16161,12 @@
   <dimension ref="A1:AA50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -17543,8 +17671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6752113A-E80F-4D8E-962A-42C6198FCF3D}">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
+++ b/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD350E-339C-4388-BD26-026FB3A1438E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E6B85-8870-4935-A29A-17AB071DE628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6687,8 +6687,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46883335280335892"/>
-          <c:y val="1.402061582519052E-2"/>
+          <c:x val="0.3366299512104588"/>
+          <c:y val="1.8694154433587361E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7493,6 +7493,8 @@
         <c:axId val="1388557408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8363,6 +8365,8 @@
         <c:axId val="1391878656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13182,15 +13186,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1804147</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>112057</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593910</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13218,15 +13222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>135590</xdr:rowOff>
+      <xdr:colOff>296956</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1400736</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>268943</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
+++ b/output/lnUSDummyModelTripleInteractionlnMortSq2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E6B85-8870-4935-A29A-17AB071DE628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2DA4D-1CB5-4E51-BFC0-41E438932622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lnUSDummyModelTripleInteraction" sheetId="1" r:id="rId1"/>
@@ -12990,16 +12990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>208250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>330714</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>327314</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>449778</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13557,7 +13557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
@@ -16164,8 +16164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19567,7 +19567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9688483-AFFF-4A20-9820-74818D16B6CF}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
